--- a/Hipre_Final.xlsx
+++ b/Hipre_Final.xlsx
@@ -11,14 +11,14 @@
     <sheet name="tx" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tx!$B$10:$I$1114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tx!$B$10:$I$1099</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1062">
   <si>
     <t>No.</t>
   </si>
@@ -83,7 +83,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Mon Jan 20 07:26:26 2025</t>
+    <t>Tue Jan 21 04:31:25 2025</t>
   </si>
   <si>
     <t>HiprelynxVersion:</t>
@@ -1677,45 +1677,6 @@
   </si>
   <si>
     <t>SNPS_ERROR  , child process exited abnormally</t>
-  </si>
-  <si>
-    <t>[CHECK] 3006_erc_lvs_calibre_macro_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB</t>
-  </si>
-  <si>
-    <t>SNPS_ERROR  , ERC verification has been failed with errors, 1 rules are violated</t>
-  </si>
-  <si>
-    <t>After inspection and possible modification, the extension .errors can be changed into .violations and put at /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc//macro/calibre/erc.</t>
-  </si>
-  <si>
-    <t>Execution of file /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc_qadata/macro/calibre/erc/create_violations_files,</t>
-  </si>
-  <si>
-    <t>will create for each entity a violations file.</t>
-  </si>
-  <si>
-    <t>A generic violations file for all entities of dwc_ucie2phy_tx can be saved at /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc//macro/calibre/erc/erc_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB.violations.</t>
-  </si>
-  <si>
-    <t>The violations which are not needed to be fixed can be moved into a waive file /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc//macro/calibre/erc/erc_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB.waive.</t>
-  </si>
-  <si>
-    <t>[CHECK] 3006_erc_lvs_icv_macro_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB</t>
-  </si>
-  <si>
-    <t>RULECHECK : ERC2a : Nwell regions not part of  containing device ports, but is not identified as  controlled, should be tied to an appropriate power  supply(PWR). - waived devices and ports : all deivces and their ports which have nwell as sub port.   copy ............................................... 6 violations found.</t>
-  </si>
-  <si>
-    <t>After inspection and possible modification, the extension .errors can be changed into .violations and put at /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc//macro/icv/erc.</t>
-  </si>
-  <si>
-    <t>Execution of file /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc_qadata/macro/icv/erc/create_violations_files,</t>
-  </si>
-  <si>
-    <t>A generic violations file for all entities of dwc_ucie2phy_tx can be saved at /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc//macro/icv/erc/erc_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB.violations.</t>
-  </si>
-  <si>
-    <t>The violations which are not needed to be fixed can be moved into a waive file /slowfs/us01dwt2p373/baotien/p4_ws/products/ucie/project/h200-ucie-a-ss4lpp-12/ckt/rel/dwc_ucie2phy_tx/rel0.95_tc//macro/icv/erc/erc_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB.waive.</t>
   </si>
   <si>
     <t>[CHECK] 3007_ant_calibre_macro_dwc_ucie2phy_tx_16M_3Mx_2Fx_7Dx_2Hx_2Iz_LB</t>
@@ -3747,19 +3708,19 @@
         <v>9</v>
       </c>
       <c r="F3" s="2">
-        <f>COUNTIF('tx'!E11:E1113, "Pass")</f>
+        <f>COUNTIF('tx'!E11:E1098, "Pass")</f>
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <f>COUNTIF('tx'!E11:E1113, "Waived")</f>
+        <f>COUNTIF('tx'!E11:E1098, "Waived")</f>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>COUNTIF('tx'!E11:E1113, "Fail")</f>
+        <f>COUNTIF('tx'!E11:E1098, "Fail")</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>COUNTIF('tx'!E11:E1113, "Touched")</f>
+        <f>COUNTIF('tx'!E11:E1098, "Touched")</f>
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -3780,7 +3741,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:I1177"/>
+  <dimension ref="A2:I1158"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -3936,7 +3897,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="7">
-        <f>IF(OR(C11="Waived",C11="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B11,B:B,0)),MATCH(B11,$B$223:B1113,0),MATCH("[CHECK] "&amp;B11,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B11,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C11="Waived",C11="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B11,B:B,0)),MATCH(B11,$B$223:B1098,0),MATCH("[CHECK] "&amp;B11,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B11,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
@@ -3955,7 +3916,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="7">
-        <f>IF(OR(C12="Waived",C12="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B12,B:B,0)),MATCH(B12,$B$223:B1113,0),MATCH("[CHECK] "&amp;B12,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B12,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C12="Waived",C12="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B12,B:B,0)),MATCH(B12,$B$223:B1098,0),MATCH("[CHECK] "&amp;B12,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B12,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
@@ -3992,7 +3953,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="7">
-        <f>IF(OR(C14="Waived",C14="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B14,B:B,0)),MATCH(B14,$B$223:B1113,0),MATCH("[CHECK] "&amp;B14,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B14,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C14="Waived",C14="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B14,B:B,0)),MATCH(B14,$B$223:B1098,0),MATCH("[CHECK] "&amp;B14,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B14,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
@@ -4029,7 +3990,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="7">
-        <f>IF(OR(C16="Waived",C16="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B16,B:B,0)),MATCH(B16,$B$223:B1113,0),MATCH("[CHECK] "&amp;B16,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B16,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C16="Waived",C16="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B16,B:B,0)),MATCH(B16,$B$223:B1098,0),MATCH("[CHECK] "&amp;B16,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B16,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H16" s="2"/>
@@ -4156,7 +4117,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="7">
-        <f>IF(OR(C23="Waived",C23="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B23,B:B,0)),MATCH(B23,$B$223:B1113,0),MATCH("[CHECK] "&amp;B23,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B23,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C23="Waived",C23="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B23,B:B,0)),MATCH(B23,$B$223:B1098,0),MATCH("[CHECK] "&amp;B23,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B23,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H23" s="2"/>
@@ -4193,7 +4154,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="7">
-        <f>IF(OR(C25="Waived",C25="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B25,B:B,0)),MATCH(B25,$B$223:B1113,0),MATCH("[CHECK] "&amp;B25,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B25,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C25="Waived",C25="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B25,B:B,0)),MATCH(B25,$B$223:B1098,0),MATCH("[CHECK] "&amp;B25,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B25,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
@@ -4356,7 +4317,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="7">
-        <f>IF(OR(C34="Waived",C34="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B34,B:B,0)),MATCH(B34,$B$223:B1113,0),MATCH("[CHECK] "&amp;B34,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B34,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C34="Waived",C34="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B34,B:B,0)),MATCH(B34,$B$223:B1098,0),MATCH("[CHECK] "&amp;B34,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B34,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
@@ -4997,17 +4958,16 @@
         <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="7">
-        <f>IF(OR(C70="Waived",C70="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B70,B:B,0)),MATCH(B70,$B$223:B1113,0),MATCH("[CHECK] "&amp;B70,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B70,B:B,0)),223,0),"Evidence"),"")</f>
-        <v>0</v>
-      </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
@@ -5016,17 +4976,16 @@
         <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="7">
-        <f>IF(OR(C71="Waived",C71="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B71,B:B,0)),MATCH(B71,$B$223:B1113,0),MATCH("[CHECK] "&amp;B71,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B71,B:B,0)),223,0),"Evidence"),"")</f>
-        <v>0</v>
-      </c>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
@@ -5151,7 +5110,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="7">
-        <f>IF(OR(C78="Waived",C78="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B78,B:B,0)),MATCH(B78,$B$223:B1113,0),MATCH("[CHECK] "&amp;B78,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B78,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C78="Waived",C78="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B78,B:B,0)),MATCH(B78,$B$223:B1098,0),MATCH("[CHECK] "&amp;B78,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B78,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H78" s="2"/>
@@ -5170,7 +5129,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="7">
-        <f>IF(OR(C79="Waived",C79="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B79,B:B,0)),MATCH(B79,$B$223:B1113,0),MATCH("[CHECK] "&amp;B79,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B79,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C79="Waived",C79="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B79,B:B,0)),MATCH(B79,$B$223:B1098,0),MATCH("[CHECK] "&amp;B79,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B79,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H79" s="2"/>
@@ -5243,7 +5202,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="7">
-        <f>IF(OR(C83="Waived",C83="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B83,B:B,0)),MATCH(B83,$B$223:B1113,0),MATCH("[CHECK] "&amp;B83,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B83,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C83="Waived",C83="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B83,B:B,0)),MATCH(B83,$B$223:B1098,0),MATCH("[CHECK] "&amp;B83,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B83,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H83" s="2"/>
@@ -5694,7 +5653,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="7">
-        <f>IF(OR(C108="Waived",C108="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B108,B:B,0)),MATCH(B108,$B$223:B1113,0),MATCH("[CHECK] "&amp;B108,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B108,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C108="Waived",C108="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B108,B:B,0)),MATCH(B108,$B$223:B1098,0),MATCH("[CHECK] "&amp;B108,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B108,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H108" s="2"/>
@@ -5767,7 +5726,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="7">
-        <f>IF(OR(C112="Waived",C112="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B112,B:B,0)),MATCH(B112,$B$223:B1113,0),MATCH("[CHECK] "&amp;B112,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B112,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C112="Waived",C112="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B112,B:B,0)),MATCH(B112,$B$223:B1098,0),MATCH("[CHECK] "&amp;B112,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B112,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H112" s="2"/>
@@ -5912,7 +5871,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="7">
-        <f>IF(OR(C120="Waived",C120="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B120,B:B,0)),MATCH(B120,$B$223:B1113,0),MATCH("[CHECK] "&amp;B120,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B120,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C120="Waived",C120="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B120,B:B,0)),MATCH(B120,$B$223:B1098,0),MATCH("[CHECK] "&amp;B120,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B120,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H120" s="2"/>
@@ -5949,7 +5908,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="7">
-        <f>IF(OR(C122="Waived",C122="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B122,B:B,0)),MATCH(B122,$B$223:B1113,0),MATCH("[CHECK] "&amp;B122,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B122,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C122="Waived",C122="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B122,B:B,0)),MATCH(B122,$B$223:B1098,0),MATCH("[CHECK] "&amp;B122,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B122,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H122" s="2"/>
@@ -6508,7 +6467,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="7">
-        <f>IF(OR(C153="Waived",C153="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B153,B:B,0)),MATCH(B153,$B$223:B1113,0),MATCH("[CHECK] "&amp;B153,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B153,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C153="Waived",C153="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B153,B:B,0)),MATCH(B153,$B$223:B1098,0),MATCH("[CHECK] "&amp;B153,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B153,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H153" s="2"/>
@@ -6545,7 +6504,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="7">
-        <f>IF(OR(C155="Waived",C155="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B155,B:B,0)),MATCH(B155,$B$223:B1113,0),MATCH("[CHECK] "&amp;B155,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B155,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C155="Waived",C155="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B155,B:B,0)),MATCH(B155,$B$223:B1098,0),MATCH("[CHECK] "&amp;B155,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B155,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H155" s="2"/>
@@ -6726,7 +6685,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="7">
-        <f>IF(OR(C165="Waived",C165="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B165,B:B,0)),MATCH(B165,$B$223:B1113,0),MATCH("[CHECK] "&amp;B165,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B165,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C165="Waived",C165="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B165,B:B,0)),MATCH(B165,$B$223:B1098,0),MATCH("[CHECK] "&amp;B165,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B165,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H165" s="2"/>
@@ -7249,7 +7208,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="7">
-        <f>IF(OR(C194="Waived",C194="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B194,B:B,0)),MATCH(B194,$B$223:B1113,0),MATCH("[CHECK] "&amp;B194,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B194,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C194="Waived",C194="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B194,B:B,0)),MATCH(B194,$B$223:B1098,0),MATCH("[CHECK] "&amp;B194,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B194,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H194" s="2"/>
@@ -7268,7 +7227,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="7">
-        <f>IF(OR(C195="Waived",C195="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B195,B:B,0)),MATCH(B195,$B$223:B1113,0),MATCH("[CHECK] "&amp;B195,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B195,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C195="Waived",C195="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B195,B:B,0)),MATCH(B195,$B$223:B1098,0),MATCH("[CHECK] "&amp;B195,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B195,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H195" s="2"/>
@@ -7341,7 +7300,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="7">
-        <f>IF(OR(C199="Waived",C199="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B199,B:B,0)),MATCH(B199,$B$223:B1113,0),MATCH("[CHECK] "&amp;B199,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B199,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C199="Waived",C199="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B199,B:B,0)),MATCH(B199,$B$223:B1098,0),MATCH("[CHECK] "&amp;B199,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B199,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H199" s="2"/>
@@ -7360,7 +7319,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="7">
-        <f>IF(OR(C200="Waived",C200="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B200,B:B,0)),MATCH(B200,$B$223:B1113,0),MATCH("[CHECK] "&amp;B200,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B200,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C200="Waived",C200="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B200,B:B,0)),MATCH(B200,$B$223:B1098,0),MATCH("[CHECK] "&amp;B200,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B200,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H200" s="2"/>
@@ -7397,7 +7356,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="7">
-        <f>IF(OR(C202="Waived",C202="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B202,B:B,0)),MATCH(B202,$B$223:B1113,0),MATCH("[CHECK] "&amp;B202,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B202,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C202="Waived",C202="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B202,B:B,0)),MATCH(B202,$B$223:B1098,0),MATCH("[CHECK] "&amp;B202,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B202,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H202" s="2"/>
@@ -7416,7 +7375,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="7">
-        <f>IF(OR(C203="Waived",C203="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B203,B:B,0)),MATCH(B203,$B$223:B1113,0),MATCH("[CHECK] "&amp;B203,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B203,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C203="Waived",C203="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B203,B:B,0)),MATCH(B203,$B$223:B1098,0),MATCH("[CHECK] "&amp;B203,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B203,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H203" s="2"/>
@@ -7507,7 +7466,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="7">
-        <f>IF(OR(C208="Waived",C208="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B208,B:B,0)),MATCH(B208,$B$223:B1113,0),MATCH("[CHECK] "&amp;B208,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B208,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C208="Waived",C208="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B208,B:B,0)),MATCH(B208,$B$223:B1098,0),MATCH("[CHECK] "&amp;B208,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B208,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H208" s="2"/>
@@ -7544,7 +7503,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="7">
-        <f>IF(OR(C210="Waived",C210="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B210,B:B,0)),MATCH(B210,$B$223:B1113,0),MATCH("[CHECK] "&amp;B210,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B210,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C210="Waived",C210="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B210,B:B,0)),MATCH(B210,$B$223:B1098,0),MATCH("[CHECK] "&amp;B210,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B210,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H210" s="2"/>
@@ -7563,7 +7522,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="7">
-        <f>IF(OR(C211="Waived",C211="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B211,B:B,0)),MATCH(B211,$B$223:B1113,0),MATCH("[CHECK] "&amp;B211,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B211,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C211="Waived",C211="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B211,B:B,0)),MATCH(B211,$B$223:B1098,0),MATCH("[CHECK] "&amp;B211,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B211,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H211" s="2"/>
@@ -7600,7 +7559,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="7">
-        <f>IF(OR(C213="Waived",C213="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B213,B:B,0)),MATCH(B213,$B$223:B1113,0),MATCH("[CHECK] "&amp;B213,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B213,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C213="Waived",C213="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B213,B:B,0)),MATCH(B213,$B$223:B1098,0),MATCH("[CHECK] "&amp;B213,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B213,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H213" s="2"/>
@@ -7619,7 +7578,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="7">
-        <f>IF(OR(C214="Waived",C214="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B214,B:B,0)),MATCH(B214,$B$223:B1113,0),MATCH("[CHECK] "&amp;B214,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B214,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C214="Waived",C214="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B214,B:B,0)),MATCH(B214,$B$223:B1098,0),MATCH("[CHECK] "&amp;B214,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B214,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H214" s="2"/>
@@ -7656,7 +7615,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="7">
-        <f>IF(OR(C216="Waived",C216="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B216,B:B,0)),MATCH(B216,$B$223:B1113,0),MATCH("[CHECK] "&amp;B216,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B216,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C216="Waived",C216="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B216,B:B,0)),MATCH(B216,$B$223:B1098,0),MATCH("[CHECK] "&amp;B216,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B216,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H216" s="2"/>
@@ -7729,7 +7688,7 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="7">
-        <f>IF(OR(C220="Waived",C220="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B220,B:B,0)),MATCH(B220,$B$223:B1113,0),MATCH("[CHECK] "&amp;B220,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B220,B:B,0)),223,0),"Evidence"),"")</f>
+        <f>IF(OR(C220="Waived",C220="Fail"),HYPERLINK("#"&amp;"B"&amp;IF(ISNA(MATCH("[CHECK] "&amp;B220,B:B,0)),MATCH(B220,$B$223:B1098,0),MATCH("[CHECK] "&amp;B220,B:B,0))+IF(ISNA(MATCH("[CHECK] "&amp;B220,B:B,0)),223,0),"Evidence"),"")</f>
         <v>0</v>
       </c>
       <c r="H220" s="2"/>
@@ -11523,45 +11482,25 @@
       <c r="H549" s="8"/>
       <c r="I549" s="8"/>
     </row>
-    <row r="550" spans="1:9">
-      <c r="B550" s="8" t="s">
+    <row r="552" spans="1:9">
+      <c r="A552" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B552,LEN(B552)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B552" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="C550" s="8"/>
-      <c r="D550" s="8"/>
-      <c r="E550" s="8"/>
-      <c r="F550" s="8"/>
-      <c r="G550" s="8"/>
-      <c r="H550" s="8"/>
-      <c r="I550" s="8"/>
-    </row>
-    <row r="551" spans="1:9">
-      <c r="B551" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="C551" s="8"/>
-      <c r="D551" s="8"/>
-      <c r="E551" s="8"/>
-      <c r="F551" s="8"/>
-      <c r="G551" s="8"/>
-      <c r="H551" s="8"/>
-      <c r="I551" s="8"/>
-    </row>
-    <row r="552" spans="1:9">
-      <c r="B552" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="C552" s="8"/>
-      <c r="D552" s="8"/>
-      <c r="E552" s="8"/>
-      <c r="F552" s="8"/>
-      <c r="G552" s="8"/>
-      <c r="H552" s="8"/>
-      <c r="I552" s="8"/>
+      <c r="C552" s="10"/>
+      <c r="D552" s="10"/>
+      <c r="E552" s="10"/>
+      <c r="F552" s="10"/>
+      <c r="G552" s="10"/>
+      <c r="H552" s="10"/>
+      <c r="I552" s="10"/>
     </row>
     <row r="553" spans="1:9">
       <c r="B553" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C553" s="8"/>
       <c r="D553" s="8"/>
@@ -11571,37 +11510,37 @@
       <c r="H553" s="8"/>
       <c r="I553" s="8"/>
     </row>
-    <row r="554" spans="1:9">
-      <c r="B554" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="C554" s="8"/>
-      <c r="D554" s="8"/>
-      <c r="E554" s="8"/>
-      <c r="F554" s="8"/>
-      <c r="G554" s="8"/>
-      <c r="H554" s="8"/>
-      <c r="I554" s="8"/>
+    <row r="556" spans="1:9">
+      <c r="A556" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B556,LEN(B556)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C556" s="10"/>
+      <c r="D556" s="10"/>
+      <c r="E556" s="10"/>
+      <c r="F556" s="10"/>
+      <c r="G556" s="10"/>
+      <c r="H556" s="10"/>
+      <c r="I556" s="10"/>
     </row>
     <row r="557" spans="1:9">
-      <c r="A557" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B557,LEN(B557)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B557" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C557" s="10"/>
-      <c r="D557" s="10"/>
-      <c r="E557" s="10"/>
-      <c r="F557" s="10"/>
-      <c r="G557" s="10"/>
-      <c r="H557" s="10"/>
-      <c r="I557" s="10"/>
+      <c r="B557" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C557" s="8"/>
+      <c r="D557" s="8"/>
+      <c r="E557" s="8"/>
+      <c r="F557" s="8"/>
+      <c r="G557" s="8"/>
+      <c r="H557" s="8"/>
+      <c r="I557" s="8"/>
     </row>
     <row r="558" spans="1:9">
       <c r="B558" s="8" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C558" s="8"/>
       <c r="D558" s="8"/>
@@ -11613,7 +11552,7 @@
     </row>
     <row r="559" spans="1:9">
       <c r="B559" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C559" s="8"/>
       <c r="D559" s="8"/>
@@ -11625,7 +11564,7 @@
     </row>
     <row r="560" spans="1:9">
       <c r="B560" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C560" s="8"/>
       <c r="D560" s="8"/>
@@ -11635,9 +11574,9 @@
       <c r="H560" s="8"/>
       <c r="I560" s="8"/>
     </row>
-    <row r="561" spans="1:9">
+    <row r="561" spans="2:9">
       <c r="B561" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C561" s="8"/>
       <c r="D561" s="8"/>
@@ -11647,9 +11586,9 @@
       <c r="H561" s="8"/>
       <c r="I561" s="8"/>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" spans="2:9">
       <c r="B562" s="8" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="C562" s="8"/>
       <c r="D562" s="8"/>
@@ -11659,7 +11598,7 @@
       <c r="H562" s="8"/>
       <c r="I562" s="8"/>
     </row>
-    <row r="563" spans="1:9">
+    <row r="563" spans="2:9">
       <c r="B563" s="8" t="s">
         <v>564</v>
       </c>
@@ -11671,7 +11610,7 @@
       <c r="H563" s="8"/>
       <c r="I563" s="8"/>
     </row>
-    <row r="564" spans="1:9">
+    <row r="564" spans="2:9">
       <c r="B564" s="8" t="s">
         <v>565</v>
       </c>
@@ -11683,25 +11622,45 @@
       <c r="H564" s="8"/>
       <c r="I564" s="8"/>
     </row>
-    <row r="567" spans="1:9">
-      <c r="A567" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B567,LEN(B567)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B567" s="10" t="s">
+    <row r="565" spans="2:9">
+      <c r="B565" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="C567" s="10"/>
-      <c r="D567" s="10"/>
-      <c r="E567" s="10"/>
-      <c r="F567" s="10"/>
-      <c r="G567" s="10"/>
-      <c r="H567" s="10"/>
-      <c r="I567" s="10"/>
-    </row>
-    <row r="568" spans="1:9">
+      <c r="C565" s="8"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+      <c r="F565" s="8"/>
+      <c r="G565" s="8"/>
+      <c r="H565" s="8"/>
+      <c r="I565" s="8"/>
+    </row>
+    <row r="566" spans="2:9">
+      <c r="B566" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C566" s="8"/>
+      <c r="D566" s="8"/>
+      <c r="E566" s="8"/>
+      <c r="F566" s="8"/>
+      <c r="G566" s="8"/>
+      <c r="H566" s="8"/>
+      <c r="I566" s="8"/>
+    </row>
+    <row r="567" spans="2:9">
+      <c r="B567" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="C567" s="8"/>
+      <c r="D567" s="8"/>
+      <c r="E567" s="8"/>
+      <c r="F567" s="8"/>
+      <c r="G567" s="8"/>
+      <c r="H567" s="8"/>
+      <c r="I567" s="8"/>
+    </row>
+    <row r="568" spans="2:9">
       <c r="B568" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C568" s="8"/>
       <c r="D568" s="8"/>
@@ -11711,25 +11670,45 @@
       <c r="H568" s="8"/>
       <c r="I568" s="8"/>
     </row>
-    <row r="571" spans="1:9">
-      <c r="A571" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B571,LEN(B571)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B571" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C571" s="10"/>
-      <c r="D571" s="10"/>
-      <c r="E571" s="10"/>
-      <c r="F571" s="10"/>
-      <c r="G571" s="10"/>
-      <c r="H571" s="10"/>
-      <c r="I571" s="10"/>
-    </row>
-    <row r="572" spans="1:9">
+    <row r="569" spans="2:9">
+      <c r="B569" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C569" s="8"/>
+      <c r="D569" s="8"/>
+      <c r="E569" s="8"/>
+      <c r="F569" s="8"/>
+      <c r="G569" s="8"/>
+      <c r="H569" s="8"/>
+      <c r="I569" s="8"/>
+    </row>
+    <row r="570" spans="2:9">
+      <c r="B570" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C570" s="8"/>
+      <c r="D570" s="8"/>
+      <c r="E570" s="8"/>
+      <c r="F570" s="8"/>
+      <c r="G570" s="8"/>
+      <c r="H570" s="8"/>
+      <c r="I570" s="8"/>
+    </row>
+    <row r="571" spans="2:9">
+      <c r="B571" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="C571" s="8"/>
+      <c r="D571" s="8"/>
+      <c r="E571" s="8"/>
+      <c r="F571" s="8"/>
+      <c r="G571" s="8"/>
+      <c r="H571" s="8"/>
+      <c r="I571" s="8"/>
+    </row>
+    <row r="572" spans="2:9">
       <c r="B572" s="8" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C572" s="8"/>
       <c r="D572" s="8"/>
@@ -11739,25 +11718,45 @@
       <c r="H572" s="8"/>
       <c r="I572" s="8"/>
     </row>
-    <row r="575" spans="1:9">
-      <c r="A575" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B575,LEN(B575)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B575" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="C575" s="10"/>
-      <c r="D575" s="10"/>
-      <c r="E575" s="10"/>
-      <c r="F575" s="10"/>
-      <c r="G575" s="10"/>
-      <c r="H575" s="10"/>
-      <c r="I575" s="10"/>
-    </row>
-    <row r="576" spans="1:9">
+    <row r="573" spans="2:9">
+      <c r="B573" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="C573" s="8"/>
+      <c r="D573" s="8"/>
+      <c r="E573" s="8"/>
+      <c r="F573" s="8"/>
+      <c r="G573" s="8"/>
+      <c r="H573" s="8"/>
+      <c r="I573" s="8"/>
+    </row>
+    <row r="574" spans="2:9">
+      <c r="B574" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C574" s="8"/>
+      <c r="D574" s="8"/>
+      <c r="E574" s="8"/>
+      <c r="F574" s="8"/>
+      <c r="G574" s="8"/>
+      <c r="H574" s="8"/>
+      <c r="I574" s="8"/>
+    </row>
+    <row r="575" spans="2:9">
+      <c r="B575" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="C575" s="8"/>
+      <c r="D575" s="8"/>
+      <c r="E575" s="8"/>
+      <c r="F575" s="8"/>
+      <c r="G575" s="8"/>
+      <c r="H575" s="8"/>
+      <c r="I575" s="8"/>
+    </row>
+    <row r="576" spans="2:9">
       <c r="B576" s="8" t="s">
-        <v>571</v>
+        <v>249</v>
       </c>
       <c r="C576" s="8"/>
       <c r="D576" s="8"/>
@@ -11767,9 +11766,9 @@
       <c r="H576" s="8"/>
       <c r="I576" s="8"/>
     </row>
-    <row r="577" spans="2:9">
+    <row r="577" spans="1:9">
       <c r="B577" s="8" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="C577" s="8"/>
       <c r="D577" s="8"/>
@@ -11779,9 +11778,9 @@
       <c r="H577" s="8"/>
       <c r="I577" s="8"/>
     </row>
-    <row r="578" spans="2:9">
+    <row r="578" spans="1:9">
       <c r="B578" s="8" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C578" s="8"/>
       <c r="D578" s="8"/>
@@ -11791,9 +11790,9 @@
       <c r="H578" s="8"/>
       <c r="I578" s="8"/>
     </row>
-    <row r="579" spans="2:9">
+    <row r="579" spans="1:9">
       <c r="B579" s="8" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C579" s="8"/>
       <c r="D579" s="8"/>
@@ -11803,9 +11802,9 @@
       <c r="H579" s="8"/>
       <c r="I579" s="8"/>
     </row>
-    <row r="580" spans="2:9">
+    <row r="580" spans="1:9">
       <c r="B580" s="8" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C580" s="8"/>
       <c r="D580" s="8"/>
@@ -11815,9 +11814,9 @@
       <c r="H580" s="8"/>
       <c r="I580" s="8"/>
     </row>
-    <row r="581" spans="2:9">
+    <row r="581" spans="1:9">
       <c r="B581" s="8" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C581" s="8"/>
       <c r="D581" s="8"/>
@@ -11827,45 +11826,25 @@
       <c r="H581" s="8"/>
       <c r="I581" s="8"/>
     </row>
-    <row r="582" spans="2:9">
-      <c r="B582" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C582" s="8"/>
-      <c r="D582" s="8"/>
-      <c r="E582" s="8"/>
-      <c r="F582" s="8"/>
-      <c r="G582" s="8"/>
-      <c r="H582" s="8"/>
-      <c r="I582" s="8"/>
-    </row>
-    <row r="583" spans="2:9">
-      <c r="B583" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="C583" s="8"/>
-      <c r="D583" s="8"/>
-      <c r="E583" s="8"/>
-      <c r="F583" s="8"/>
-      <c r="G583" s="8"/>
-      <c r="H583" s="8"/>
-      <c r="I583" s="8"/>
-    </row>
-    <row r="584" spans="2:9">
-      <c r="B584" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="C584" s="8"/>
-      <c r="D584" s="8"/>
-      <c r="E584" s="8"/>
-      <c r="F584" s="8"/>
-      <c r="G584" s="8"/>
-      <c r="H584" s="8"/>
-      <c r="I584" s="8"/>
-    </row>
-    <row r="585" spans="2:9">
+    <row r="584" spans="1:9">
+      <c r="A584" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B584,LEN(B584)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B584" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C584" s="10"/>
+      <c r="D584" s="10"/>
+      <c r="E584" s="10"/>
+      <c r="F584" s="10"/>
+      <c r="G584" s="10"/>
+      <c r="H584" s="10"/>
+      <c r="I584" s="10"/>
+    </row>
+    <row r="585" spans="1:9">
       <c r="B585" s="8" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C585" s="8"/>
       <c r="D585" s="8"/>
@@ -11875,9 +11854,9 @@
       <c r="H585" s="8"/>
       <c r="I585" s="8"/>
     </row>
-    <row r="586" spans="2:9">
+    <row r="586" spans="1:9">
       <c r="B586" s="8" t="s">
-        <v>581</v>
+        <v>288</v>
       </c>
       <c r="C586" s="8"/>
       <c r="D586" s="8"/>
@@ -11887,9 +11866,9 @@
       <c r="H586" s="8"/>
       <c r="I586" s="8"/>
     </row>
-    <row r="587" spans="2:9">
+    <row r="587" spans="1:9">
       <c r="B587" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C587" s="8"/>
       <c r="D587" s="8"/>
@@ -11899,9 +11878,9 @@
       <c r="H587" s="8"/>
       <c r="I587" s="8"/>
     </row>
-    <row r="588" spans="2:9">
+    <row r="588" spans="1:9">
       <c r="B588" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C588" s="8"/>
       <c r="D588" s="8"/>
@@ -11911,9 +11890,9 @@
       <c r="H588" s="8"/>
       <c r="I588" s="8"/>
     </row>
-    <row r="589" spans="2:9">
+    <row r="589" spans="1:9">
       <c r="B589" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C589" s="8"/>
       <c r="D589" s="8"/>
@@ -11923,9 +11902,9 @@
       <c r="H589" s="8"/>
       <c r="I589" s="8"/>
     </row>
-    <row r="590" spans="2:9">
+    <row r="590" spans="1:9">
       <c r="B590" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C590" s="8"/>
       <c r="D590" s="8"/>
@@ -11935,9 +11914,9 @@
       <c r="H590" s="8"/>
       <c r="I590" s="8"/>
     </row>
-    <row r="591" spans="2:9">
+    <row r="591" spans="1:9">
       <c r="B591" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C591" s="8"/>
       <c r="D591" s="8"/>
@@ -11947,9 +11926,9 @@
       <c r="H591" s="8"/>
       <c r="I591" s="8"/>
     </row>
-    <row r="592" spans="2:9">
+    <row r="592" spans="1:9">
       <c r="B592" s="8" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C592" s="8"/>
       <c r="D592" s="8"/>
@@ -11961,7 +11940,7 @@
     </row>
     <row r="593" spans="1:9">
       <c r="B593" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C593" s="8"/>
       <c r="D593" s="8"/>
@@ -11973,7 +11952,7 @@
     </row>
     <row r="594" spans="1:9">
       <c r="B594" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C594" s="8"/>
       <c r="D594" s="8"/>
@@ -11985,7 +11964,7 @@
     </row>
     <row r="595" spans="1:9">
       <c r="B595" s="8" t="s">
-        <v>249</v>
+        <v>592</v>
       </c>
       <c r="C595" s="8"/>
       <c r="D595" s="8"/>
@@ -11997,7 +11976,7 @@
     </row>
     <row r="596" spans="1:9">
       <c r="B596" s="8" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="C596" s="8"/>
       <c r="D596" s="8"/>
@@ -12007,45 +11986,25 @@
       <c r="H596" s="8"/>
       <c r="I596" s="8"/>
     </row>
-    <row r="597" spans="1:9">
-      <c r="B597" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C597" s="8"/>
-      <c r="D597" s="8"/>
-      <c r="E597" s="8"/>
-      <c r="F597" s="8"/>
-      <c r="G597" s="8"/>
-      <c r="H597" s="8"/>
-      <c r="I597" s="8"/>
-    </row>
-    <row r="598" spans="1:9">
-      <c r="B598" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="C598" s="8"/>
-      <c r="D598" s="8"/>
-      <c r="E598" s="8"/>
-      <c r="F598" s="8"/>
-      <c r="G598" s="8"/>
-      <c r="H598" s="8"/>
-      <c r="I598" s="8"/>
-    </row>
     <row r="599" spans="1:9">
-      <c r="B599" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="C599" s="8"/>
-      <c r="D599" s="8"/>
-      <c r="E599" s="8"/>
-      <c r="F599" s="8"/>
-      <c r="G599" s="8"/>
-      <c r="H599" s="8"/>
-      <c r="I599" s="8"/>
+      <c r="A599" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B599,LEN(B599)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="C599" s="10"/>
+      <c r="D599" s="10"/>
+      <c r="E599" s="10"/>
+      <c r="F599" s="10"/>
+      <c r="G599" s="10"/>
+      <c r="H599" s="10"/>
+      <c r="I599" s="10"/>
     </row>
     <row r="600" spans="1:9">
       <c r="B600" s="8" t="s">
-        <v>594</v>
+        <v>288</v>
       </c>
       <c r="C600" s="8"/>
       <c r="D600" s="8"/>
@@ -12055,25 +12014,45 @@
       <c r="H600" s="8"/>
       <c r="I600" s="8"/>
     </row>
+    <row r="601" spans="1:9">
+      <c r="B601" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="C601" s="8"/>
+      <c r="D601" s="8"/>
+      <c r="E601" s="8"/>
+      <c r="F601" s="8"/>
+      <c r="G601" s="8"/>
+      <c r="H601" s="8"/>
+      <c r="I601" s="8"/>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="B602" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C602" s="8"/>
+      <c r="D602" s="8"/>
+      <c r="E602" s="8"/>
+      <c r="F602" s="8"/>
+      <c r="G602" s="8"/>
+      <c r="H602" s="8"/>
+      <c r="I602" s="8"/>
+    </row>
     <row r="603" spans="1:9">
-      <c r="A603" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B603,LEN(B603)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B603" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C603" s="10"/>
-      <c r="D603" s="10"/>
-      <c r="E603" s="10"/>
-      <c r="F603" s="10"/>
-      <c r="G603" s="10"/>
-      <c r="H603" s="10"/>
-      <c r="I603" s="10"/>
+      <c r="B603" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C603" s="8"/>
+      <c r="D603" s="8"/>
+      <c r="E603" s="8"/>
+      <c r="F603" s="8"/>
+      <c r="G603" s="8"/>
+      <c r="H603" s="8"/>
+      <c r="I603" s="8"/>
     </row>
     <row r="604" spans="1:9">
       <c r="B604" s="8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C604" s="8"/>
       <c r="D604" s="8"/>
@@ -12085,7 +12064,7 @@
     </row>
     <row r="605" spans="1:9">
       <c r="B605" s="8" t="s">
-        <v>288</v>
+        <v>599</v>
       </c>
       <c r="C605" s="8"/>
       <c r="D605" s="8"/>
@@ -12097,7 +12076,7 @@
     </row>
     <row r="606" spans="1:9">
       <c r="B606" s="8" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C606" s="8"/>
       <c r="D606" s="8"/>
@@ -12109,7 +12088,7 @@
     </row>
     <row r="607" spans="1:9">
       <c r="B607" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C607" s="8"/>
       <c r="D607" s="8"/>
@@ -12121,7 +12100,7 @@
     </row>
     <row r="608" spans="1:9">
       <c r="B608" s="8" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C608" s="8"/>
       <c r="D608" s="8"/>
@@ -12131,9 +12110,9 @@
       <c r="H608" s="8"/>
       <c r="I608" s="8"/>
     </row>
-    <row r="609" spans="1:9">
+    <row r="609" spans="2:9">
       <c r="B609" s="8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C609" s="8"/>
       <c r="D609" s="8"/>
@@ -12143,9 +12122,9 @@
       <c r="H609" s="8"/>
       <c r="I609" s="8"/>
     </row>
-    <row r="610" spans="1:9">
+    <row r="610" spans="2:9">
       <c r="B610" s="8" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C610" s="8"/>
       <c r="D610" s="8"/>
@@ -12155,9 +12134,9 @@
       <c r="H610" s="8"/>
       <c r="I610" s="8"/>
     </row>
-    <row r="611" spans="1:9">
+    <row r="611" spans="2:9">
       <c r="B611" s="8" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C611" s="8"/>
       <c r="D611" s="8"/>
@@ -12167,9 +12146,9 @@
       <c r="H611" s="8"/>
       <c r="I611" s="8"/>
     </row>
-    <row r="612" spans="1:9">
+    <row r="612" spans="2:9">
       <c r="B612" s="8" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C612" s="8"/>
       <c r="D612" s="8"/>
@@ -12179,9 +12158,9 @@
       <c r="H612" s="8"/>
       <c r="I612" s="8"/>
     </row>
-    <row r="613" spans="1:9">
+    <row r="613" spans="2:9">
       <c r="B613" s="8" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C613" s="8"/>
       <c r="D613" s="8"/>
@@ -12191,9 +12170,9 @@
       <c r="H613" s="8"/>
       <c r="I613" s="8"/>
     </row>
-    <row r="614" spans="1:9">
+    <row r="614" spans="2:9">
       <c r="B614" s="8" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="C614" s="8"/>
       <c r="D614" s="8"/>
@@ -12203,9 +12182,9 @@
       <c r="H614" s="8"/>
       <c r="I614" s="8"/>
     </row>
-    <row r="615" spans="1:9">
+    <row r="615" spans="2:9">
       <c r="B615" s="8" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C615" s="8"/>
       <c r="D615" s="8"/>
@@ -12215,25 +12194,45 @@
       <c r="H615" s="8"/>
       <c r="I615" s="8"/>
     </row>
-    <row r="618" spans="1:9">
-      <c r="A618" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B618,LEN(B618)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B618" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C618" s="10"/>
-      <c r="D618" s="10"/>
-      <c r="E618" s="10"/>
-      <c r="F618" s="10"/>
-      <c r="G618" s="10"/>
-      <c r="H618" s="10"/>
-      <c r="I618" s="10"/>
-    </row>
-    <row r="619" spans="1:9">
+    <row r="616" spans="2:9">
+      <c r="B616" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C616" s="8"/>
+      <c r="D616" s="8"/>
+      <c r="E616" s="8"/>
+      <c r="F616" s="8"/>
+      <c r="G616" s="8"/>
+      <c r="H616" s="8"/>
+      <c r="I616" s="8"/>
+    </row>
+    <row r="617" spans="2:9">
+      <c r="B617" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C617" s="8"/>
+      <c r="D617" s="8"/>
+      <c r="E617" s="8"/>
+      <c r="F617" s="8"/>
+      <c r="G617" s="8"/>
+      <c r="H617" s="8"/>
+      <c r="I617" s="8"/>
+    </row>
+    <row r="618" spans="2:9">
+      <c r="B618" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="C618" s="8"/>
+      <c r="D618" s="8"/>
+      <c r="E618" s="8"/>
+      <c r="F618" s="8"/>
+      <c r="G618" s="8"/>
+      <c r="H618" s="8"/>
+      <c r="I618" s="8"/>
+    </row>
+    <row r="619" spans="2:9">
       <c r="B619" s="8" t="s">
-        <v>288</v>
+        <v>613</v>
       </c>
       <c r="C619" s="8"/>
       <c r="D619" s="8"/>
@@ -12243,9 +12242,9 @@
       <c r="H619" s="8"/>
       <c r="I619" s="8"/>
     </row>
-    <row r="620" spans="1:9">
+    <row r="620" spans="2:9">
       <c r="B620" s="8" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C620" s="8"/>
       <c r="D620" s="8"/>
@@ -12255,9 +12254,9 @@
       <c r="H620" s="8"/>
       <c r="I620" s="8"/>
     </row>
-    <row r="621" spans="1:9">
+    <row r="621" spans="2:9">
       <c r="B621" s="8" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C621" s="8"/>
       <c r="D621" s="8"/>
@@ -12267,9 +12266,9 @@
       <c r="H621" s="8"/>
       <c r="I621" s="8"/>
     </row>
-    <row r="622" spans="1:9">
+    <row r="622" spans="2:9">
       <c r="B622" s="8" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="C622" s="8"/>
       <c r="D622" s="8"/>
@@ -12279,9 +12278,9 @@
       <c r="H622" s="8"/>
       <c r="I622" s="8"/>
     </row>
-    <row r="623" spans="1:9">
+    <row r="623" spans="2:9">
       <c r="B623" s="8" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="C623" s="8"/>
       <c r="D623" s="8"/>
@@ -12291,9 +12290,9 @@
       <c r="H623" s="8"/>
       <c r="I623" s="8"/>
     </row>
-    <row r="624" spans="1:9">
+    <row r="624" spans="2:9">
       <c r="B624" s="8" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="C624" s="8"/>
       <c r="D624" s="8"/>
@@ -12305,7 +12304,7 @@
     </row>
     <row r="625" spans="2:9">
       <c r="B625" s="8" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C625" s="8"/>
       <c r="D625" s="8"/>
@@ -12317,7 +12316,7 @@
     </row>
     <row r="626" spans="2:9">
       <c r="B626" s="8" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="C626" s="8"/>
       <c r="D626" s="8"/>
@@ -12329,7 +12328,7 @@
     </row>
     <row r="627" spans="2:9">
       <c r="B627" s="8" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="C627" s="8"/>
       <c r="D627" s="8"/>
@@ -12341,7 +12340,7 @@
     </row>
     <row r="628" spans="2:9">
       <c r="B628" s="8" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="C628" s="8"/>
       <c r="D628" s="8"/>
@@ -12353,7 +12352,7 @@
     </row>
     <row r="629" spans="2:9">
       <c r="B629" s="8" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="C629" s="8"/>
       <c r="D629" s="8"/>
@@ -12365,7 +12364,7 @@
     </row>
     <row r="630" spans="2:9">
       <c r="B630" s="8" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C630" s="8"/>
       <c r="D630" s="8"/>
@@ -12377,7 +12376,7 @@
     </row>
     <row r="631" spans="2:9">
       <c r="B631" s="8" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="C631" s="8"/>
       <c r="D631" s="8"/>
@@ -12389,7 +12388,7 @@
     </row>
     <row r="632" spans="2:9">
       <c r="B632" s="8" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C632" s="8"/>
       <c r="D632" s="8"/>
@@ -12401,7 +12400,7 @@
     </row>
     <row r="633" spans="2:9">
       <c r="B633" s="8" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C633" s="8"/>
       <c r="D633" s="8"/>
@@ -12413,7 +12412,7 @@
     </row>
     <row r="634" spans="2:9">
       <c r="B634" s="8" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="C634" s="8"/>
       <c r="D634" s="8"/>
@@ -12425,7 +12424,7 @@
     </row>
     <row r="635" spans="2:9">
       <c r="B635" s="8" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="C635" s="8"/>
       <c r="D635" s="8"/>
@@ -12437,7 +12436,7 @@
     </row>
     <row r="636" spans="2:9">
       <c r="B636" s="8" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C636" s="8"/>
       <c r="D636" s="8"/>
@@ -12449,7 +12448,7 @@
     </row>
     <row r="637" spans="2:9">
       <c r="B637" s="8" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="C637" s="8"/>
       <c r="D637" s="8"/>
@@ -12461,7 +12460,7 @@
     </row>
     <row r="638" spans="2:9">
       <c r="B638" s="8" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
@@ -12473,7 +12472,7 @@
     </row>
     <row r="639" spans="2:9">
       <c r="B639" s="8" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C639" s="8"/>
       <c r="D639" s="8"/>
@@ -12485,7 +12484,7 @@
     </row>
     <row r="640" spans="2:9">
       <c r="B640" s="8" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="C640" s="8"/>
       <c r="D640" s="8"/>
@@ -12497,7 +12496,7 @@
     </row>
     <row r="641" spans="2:9">
       <c r="B641" s="8" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="C641" s="8"/>
       <c r="D641" s="8"/>
@@ -12509,7 +12508,7 @@
     </row>
     <row r="642" spans="2:9">
       <c r="B642" s="8" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="C642" s="8"/>
       <c r="D642" s="8"/>
@@ -12521,7 +12520,7 @@
     </row>
     <row r="643" spans="2:9">
       <c r="B643" s="8" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C643" s="8"/>
       <c r="D643" s="8"/>
@@ -12533,7 +12532,7 @@
     </row>
     <row r="644" spans="2:9">
       <c r="B644" s="8" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="C644" s="8"/>
       <c r="D644" s="8"/>
@@ -12545,7 +12544,7 @@
     </row>
     <row r="645" spans="2:9">
       <c r="B645" s="8" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="C645" s="8"/>
       <c r="D645" s="8"/>
@@ -12557,7 +12556,7 @@
     </row>
     <row r="646" spans="2:9">
       <c r="B646" s="8" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="C646" s="8"/>
       <c r="D646" s="8"/>
@@ -12569,7 +12568,7 @@
     </row>
     <row r="647" spans="2:9">
       <c r="B647" s="8" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C647" s="8"/>
       <c r="D647" s="8"/>
@@ -12581,7 +12580,7 @@
     </row>
     <row r="648" spans="2:9">
       <c r="B648" s="8" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C648" s="8"/>
       <c r="D648" s="8"/>
@@ -12593,7 +12592,7 @@
     </row>
     <row r="649" spans="2:9">
       <c r="B649" s="8" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="C649" s="8"/>
       <c r="D649" s="8"/>
@@ -12605,7 +12604,7 @@
     </row>
     <row r="650" spans="2:9">
       <c r="B650" s="8" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="C650" s="8"/>
       <c r="D650" s="8"/>
@@ -12617,7 +12616,7 @@
     </row>
     <row r="651" spans="2:9">
       <c r="B651" s="8" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="C651" s="8"/>
       <c r="D651" s="8"/>
@@ -12629,7 +12628,7 @@
     </row>
     <row r="652" spans="2:9">
       <c r="B652" s="8" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="C652" s="8"/>
       <c r="D652" s="8"/>
@@ -12641,7 +12640,7 @@
     </row>
     <row r="653" spans="2:9">
       <c r="B653" s="8" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C653" s="8"/>
       <c r="D653" s="8"/>
@@ -12653,7 +12652,7 @@
     </row>
     <row r="654" spans="2:9">
       <c r="B654" s="8" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C654" s="8"/>
       <c r="D654" s="8"/>
@@ -12665,7 +12664,7 @@
     </row>
     <row r="655" spans="2:9">
       <c r="B655" s="8" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="C655" s="8"/>
       <c r="D655" s="8"/>
@@ -12677,7 +12676,7 @@
     </row>
     <row r="656" spans="2:9">
       <c r="B656" s="8" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C656" s="8"/>
       <c r="D656" s="8"/>
@@ -12689,7 +12688,7 @@
     </row>
     <row r="657" spans="2:9">
       <c r="B657" s="8" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C657" s="8"/>
       <c r="D657" s="8"/>
@@ -12701,7 +12700,7 @@
     </row>
     <row r="658" spans="2:9">
       <c r="B658" s="8" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="C658" s="8"/>
       <c r="D658" s="8"/>
@@ -12713,7 +12712,7 @@
     </row>
     <row r="659" spans="2:9">
       <c r="B659" s="8" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C659" s="8"/>
       <c r="D659" s="8"/>
@@ -12725,7 +12724,7 @@
     </row>
     <row r="660" spans="2:9">
       <c r="B660" s="8" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C660" s="8"/>
       <c r="D660" s="8"/>
@@ -12737,7 +12736,7 @@
     </row>
     <row r="661" spans="2:9">
       <c r="B661" s="8" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="C661" s="8"/>
       <c r="D661" s="8"/>
@@ -12749,7 +12748,7 @@
     </row>
     <row r="662" spans="2:9">
       <c r="B662" s="8" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="C662" s="8"/>
       <c r="D662" s="8"/>
@@ -12761,7 +12760,7 @@
     </row>
     <row r="663" spans="2:9">
       <c r="B663" s="8" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C663" s="8"/>
       <c r="D663" s="8"/>
@@ -12773,7 +12772,7 @@
     </row>
     <row r="664" spans="2:9">
       <c r="B664" s="8" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C664" s="8"/>
       <c r="D664" s="8"/>
@@ -12785,7 +12784,7 @@
     </row>
     <row r="665" spans="2:9">
       <c r="B665" s="8" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="C665" s="8"/>
       <c r="D665" s="8"/>
@@ -12797,7 +12796,7 @@
     </row>
     <row r="666" spans="2:9">
       <c r="B666" s="8" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C666" s="8"/>
       <c r="D666" s="8"/>
@@ -12809,7 +12808,7 @@
     </row>
     <row r="667" spans="2:9">
       <c r="B667" s="8" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C667" s="8"/>
       <c r="D667" s="8"/>
@@ -12821,7 +12820,7 @@
     </row>
     <row r="668" spans="2:9">
       <c r="B668" s="8" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="C668" s="8"/>
       <c r="D668" s="8"/>
@@ -12833,7 +12832,7 @@
     </row>
     <row r="669" spans="2:9">
       <c r="B669" s="8" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C669" s="8"/>
       <c r="D669" s="8"/>
@@ -12845,7 +12844,7 @@
     </row>
     <row r="670" spans="2:9">
       <c r="B670" s="8" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="C670" s="8"/>
       <c r="D670" s="8"/>
@@ -12857,7 +12856,7 @@
     </row>
     <row r="671" spans="2:9">
       <c r="B671" s="8" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="C671" s="8"/>
       <c r="D671" s="8"/>
@@ -12869,7 +12868,7 @@
     </row>
     <row r="672" spans="2:9">
       <c r="B672" s="8" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="C672" s="8"/>
       <c r="D672" s="8"/>
@@ -12881,7 +12880,7 @@
     </row>
     <row r="673" spans="2:9">
       <c r="B673" s="8" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C673" s="8"/>
       <c r="D673" s="8"/>
@@ -12893,7 +12892,7 @@
     </row>
     <row r="674" spans="2:9">
       <c r="B674" s="8" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="C674" s="8"/>
       <c r="D674" s="8"/>
@@ -12905,7 +12904,7 @@
     </row>
     <row r="675" spans="2:9">
       <c r="B675" s="8" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C675" s="8"/>
       <c r="D675" s="8"/>
@@ -12917,7 +12916,7 @@
     </row>
     <row r="676" spans="2:9">
       <c r="B676" s="8" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C676" s="8"/>
       <c r="D676" s="8"/>
@@ -12929,7 +12928,7 @@
     </row>
     <row r="677" spans="2:9">
       <c r="B677" s="8" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C677" s="8"/>
       <c r="D677" s="8"/>
@@ -12941,7 +12940,7 @@
     </row>
     <row r="678" spans="2:9">
       <c r="B678" s="8" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C678" s="8"/>
       <c r="D678" s="8"/>
@@ -12953,7 +12952,7 @@
     </row>
     <row r="679" spans="2:9">
       <c r="B679" s="8" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="C679" s="8"/>
       <c r="D679" s="8"/>
@@ -12965,7 +12964,7 @@
     </row>
     <row r="680" spans="2:9">
       <c r="B680" s="8" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C680" s="8"/>
       <c r="D680" s="8"/>
@@ -12977,7 +12976,7 @@
     </row>
     <row r="681" spans="2:9">
       <c r="B681" s="8" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="C681" s="8"/>
       <c r="D681" s="8"/>
@@ -12989,7 +12988,7 @@
     </row>
     <row r="682" spans="2:9">
       <c r="B682" s="8" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="C682" s="8"/>
       <c r="D682" s="8"/>
@@ -13001,7 +13000,7 @@
     </row>
     <row r="683" spans="2:9">
       <c r="B683" s="8" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C683" s="8"/>
       <c r="D683" s="8"/>
@@ -13013,7 +13012,7 @@
     </row>
     <row r="684" spans="2:9">
       <c r="B684" s="8" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C684" s="8"/>
       <c r="D684" s="8"/>
@@ -13025,7 +13024,7 @@
     </row>
     <row r="685" spans="2:9">
       <c r="B685" s="8" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C685" s="8"/>
       <c r="D685" s="8"/>
@@ -13037,7 +13036,7 @@
     </row>
     <row r="686" spans="2:9">
       <c r="B686" s="8" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="C686" s="8"/>
       <c r="D686" s="8"/>
@@ -13049,7 +13048,7 @@
     </row>
     <row r="687" spans="2:9">
       <c r="B687" s="8" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C687" s="8"/>
       <c r="D687" s="8"/>
@@ -13061,7 +13060,7 @@
     </row>
     <row r="688" spans="2:9">
       <c r="B688" s="8" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C688" s="8"/>
       <c r="D688" s="8"/>
@@ -13073,7 +13072,7 @@
     </row>
     <row r="689" spans="2:9">
       <c r="B689" s="8" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="C689" s="8"/>
       <c r="D689" s="8"/>
@@ -13085,7 +13084,7 @@
     </row>
     <row r="690" spans="2:9">
       <c r="B690" s="8" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="C690" s="8"/>
       <c r="D690" s="8"/>
@@ -13097,7 +13096,7 @@
     </row>
     <row r="691" spans="2:9">
       <c r="B691" s="8" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="C691" s="8"/>
       <c r="D691" s="8"/>
@@ -13109,7 +13108,7 @@
     </row>
     <row r="692" spans="2:9">
       <c r="B692" s="8" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C692" s="8"/>
       <c r="D692" s="8"/>
@@ -13121,7 +13120,7 @@
     </row>
     <row r="693" spans="2:9">
       <c r="B693" s="8" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C693" s="8"/>
       <c r="D693" s="8"/>
@@ -13133,7 +13132,7 @@
     </row>
     <row r="694" spans="2:9">
       <c r="B694" s="8" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C694" s="8"/>
       <c r="D694" s="8"/>
@@ -13145,7 +13144,7 @@
     </row>
     <row r="695" spans="2:9">
       <c r="B695" s="8" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="C695" s="8"/>
       <c r="D695" s="8"/>
@@ -13157,7 +13156,7 @@
     </row>
     <row r="696" spans="2:9">
       <c r="B696" s="8" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C696" s="8"/>
       <c r="D696" s="8"/>
@@ -13169,7 +13168,7 @@
     </row>
     <row r="697" spans="2:9">
       <c r="B697" s="8" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C697" s="8"/>
       <c r="D697" s="8"/>
@@ -13181,7 +13180,7 @@
     </row>
     <row r="698" spans="2:9">
       <c r="B698" s="8" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="C698" s="8"/>
       <c r="D698" s="8"/>
@@ -13193,7 +13192,7 @@
     </row>
     <row r="699" spans="2:9">
       <c r="B699" s="8" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C699" s="8"/>
       <c r="D699" s="8"/>
@@ -13205,7 +13204,7 @@
     </row>
     <row r="700" spans="2:9">
       <c r="B700" s="8" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C700" s="8"/>
       <c r="D700" s="8"/>
@@ -13217,7 +13216,7 @@
     </row>
     <row r="701" spans="2:9">
       <c r="B701" s="8" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="C701" s="8"/>
       <c r="D701" s="8"/>
@@ -13229,7 +13228,7 @@
     </row>
     <row r="702" spans="2:9">
       <c r="B702" s="8" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C702" s="8"/>
       <c r="D702" s="8"/>
@@ -13241,7 +13240,7 @@
     </row>
     <row r="703" spans="2:9">
       <c r="B703" s="8" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C703" s="8"/>
       <c r="D703" s="8"/>
@@ -13253,7 +13252,7 @@
     </row>
     <row r="704" spans="2:9">
       <c r="B704" s="8" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="C704" s="8"/>
       <c r="D704" s="8"/>
@@ -13265,7 +13264,7 @@
     </row>
     <row r="705" spans="2:9">
       <c r="B705" s="8" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C705" s="8"/>
       <c r="D705" s="8"/>
@@ -13277,7 +13276,7 @@
     </row>
     <row r="706" spans="2:9">
       <c r="B706" s="8" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C706" s="8"/>
       <c r="D706" s="8"/>
@@ -13289,7 +13288,7 @@
     </row>
     <row r="707" spans="2:9">
       <c r="B707" s="8" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="C707" s="8"/>
       <c r="D707" s="8"/>
@@ -13301,7 +13300,7 @@
     </row>
     <row r="708" spans="2:9">
       <c r="B708" s="8" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C708" s="8"/>
       <c r="D708" s="8"/>
@@ -13313,7 +13312,7 @@
     </row>
     <row r="709" spans="2:9">
       <c r="B709" s="8" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C709" s="8"/>
       <c r="D709" s="8"/>
@@ -13325,7 +13324,7 @@
     </row>
     <row r="710" spans="2:9">
       <c r="B710" s="8" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C710" s="8"/>
       <c r="D710" s="8"/>
@@ -13337,7 +13336,7 @@
     </row>
     <row r="711" spans="2:9">
       <c r="B711" s="8" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C711" s="8"/>
       <c r="D711" s="8"/>
@@ -13349,7 +13348,7 @@
     </row>
     <row r="712" spans="2:9">
       <c r="B712" s="8" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C712" s="8"/>
       <c r="D712" s="8"/>
@@ -13361,7 +13360,7 @@
     </row>
     <row r="713" spans="2:9">
       <c r="B713" s="8" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C713" s="8"/>
       <c r="D713" s="8"/>
@@ -13373,7 +13372,7 @@
     </row>
     <row r="714" spans="2:9">
       <c r="B714" s="8" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="C714" s="8"/>
       <c r="D714" s="8"/>
@@ -13385,7 +13384,7 @@
     </row>
     <row r="715" spans="2:9">
       <c r="B715" s="8" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C715" s="8"/>
       <c r="D715" s="8"/>
@@ -13397,7 +13396,7 @@
     </row>
     <row r="716" spans="2:9">
       <c r="B716" s="8" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C716" s="8"/>
       <c r="D716" s="8"/>
@@ -13409,7 +13408,7 @@
     </row>
     <row r="717" spans="2:9">
       <c r="B717" s="8" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="C717" s="8"/>
       <c r="D717" s="8"/>
@@ -13421,7 +13420,7 @@
     </row>
     <row r="718" spans="2:9">
       <c r="B718" s="8" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C718" s="8"/>
       <c r="D718" s="8"/>
@@ -13433,7 +13432,7 @@
     </row>
     <row r="719" spans="2:9">
       <c r="B719" s="8" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C719" s="8"/>
       <c r="D719" s="8"/>
@@ -13445,7 +13444,7 @@
     </row>
     <row r="720" spans="2:9">
       <c r="B720" s="8" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C720" s="8"/>
       <c r="D720" s="8"/>
@@ -13457,7 +13456,7 @@
     </row>
     <row r="721" spans="2:9">
       <c r="B721" s="8" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C721" s="8"/>
       <c r="D721" s="8"/>
@@ -13469,7 +13468,7 @@
     </row>
     <row r="722" spans="2:9">
       <c r="B722" s="8" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C722" s="8"/>
       <c r="D722" s="8"/>
@@ -13481,7 +13480,7 @@
     </row>
     <row r="723" spans="2:9">
       <c r="B723" s="8" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C723" s="8"/>
       <c r="D723" s="8"/>
@@ -13493,7 +13492,7 @@
     </row>
     <row r="724" spans="2:9">
       <c r="B724" s="8" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C724" s="8"/>
       <c r="D724" s="8"/>
@@ -13505,7 +13504,7 @@
     </row>
     <row r="725" spans="2:9">
       <c r="B725" s="8" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="C725" s="8"/>
       <c r="D725" s="8"/>
@@ -13517,7 +13516,7 @@
     </row>
     <row r="726" spans="2:9">
       <c r="B726" s="8" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C726" s="8"/>
       <c r="D726" s="8"/>
@@ -13529,7 +13528,7 @@
     </row>
     <row r="727" spans="2:9">
       <c r="B727" s="8" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C727" s="8"/>
       <c r="D727" s="8"/>
@@ -13541,7 +13540,7 @@
     </row>
     <row r="728" spans="2:9">
       <c r="B728" s="8" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="C728" s="8"/>
       <c r="D728" s="8"/>
@@ -13553,7 +13552,7 @@
     </row>
     <row r="729" spans="2:9">
       <c r="B729" s="8" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="C729" s="8"/>
       <c r="D729" s="8"/>
@@ -13565,7 +13564,7 @@
     </row>
     <row r="730" spans="2:9">
       <c r="B730" s="8" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C730" s="8"/>
       <c r="D730" s="8"/>
@@ -13577,7 +13576,7 @@
     </row>
     <row r="731" spans="2:9">
       <c r="B731" s="8" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C731" s="8"/>
       <c r="D731" s="8"/>
@@ -13589,7 +13588,7 @@
     </row>
     <row r="732" spans="2:9">
       <c r="B732" s="8" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C732" s="8"/>
       <c r="D732" s="8"/>
@@ -13601,7 +13600,7 @@
     </row>
     <row r="733" spans="2:9">
       <c r="B733" s="8" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C733" s="8"/>
       <c r="D733" s="8"/>
@@ -13613,7 +13612,7 @@
     </row>
     <row r="734" spans="2:9">
       <c r="B734" s="8" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C734" s="8"/>
       <c r="D734" s="8"/>
@@ -13625,7 +13624,7 @@
     </row>
     <row r="735" spans="2:9">
       <c r="B735" s="8" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C735" s="8"/>
       <c r="D735" s="8"/>
@@ -13637,7 +13636,7 @@
     </row>
     <row r="736" spans="2:9">
       <c r="B736" s="8" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C736" s="8"/>
       <c r="D736" s="8"/>
@@ -13647,45 +13646,25 @@
       <c r="H736" s="8"/>
       <c r="I736" s="8"/>
     </row>
-    <row r="737" spans="2:9">
-      <c r="B737" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="C737" s="8"/>
-      <c r="D737" s="8"/>
-      <c r="E737" s="8"/>
-      <c r="F737" s="8"/>
-      <c r="G737" s="8"/>
-      <c r="H737" s="8"/>
-      <c r="I737" s="8"/>
-    </row>
-    <row r="738" spans="2:9">
-      <c r="B738" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="C738" s="8"/>
-      <c r="D738" s="8"/>
-      <c r="E738" s="8"/>
-      <c r="F738" s="8"/>
-      <c r="G738" s="8"/>
-      <c r="H738" s="8"/>
-      <c r="I738" s="8"/>
-    </row>
-    <row r="739" spans="2:9">
-      <c r="B739" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="C739" s="8"/>
-      <c r="D739" s="8"/>
-      <c r="E739" s="8"/>
-      <c r="F739" s="8"/>
-      <c r="G739" s="8"/>
-      <c r="H739" s="8"/>
-      <c r="I739" s="8"/>
-    </row>
-    <row r="740" spans="2:9">
+    <row r="739" spans="1:9">
+      <c r="A739" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B739,LEN(B739)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B739" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C739" s="10"/>
+      <c r="D739" s="10"/>
+      <c r="E739" s="10"/>
+      <c r="F739" s="10"/>
+      <c r="G739" s="10"/>
+      <c r="H739" s="10"/>
+      <c r="I739" s="10"/>
+    </row>
+    <row r="740" spans="1:9">
       <c r="B740" s="8" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
@@ -13695,9 +13674,9 @@
       <c r="H740" s="8"/>
       <c r="I740" s="8"/>
     </row>
-    <row r="741" spans="2:9">
+    <row r="741" spans="1:9">
       <c r="B741" s="8" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C741" s="8"/>
       <c r="D741" s="8"/>
@@ -13707,9 +13686,9 @@
       <c r="H741" s="8"/>
       <c r="I741" s="8"/>
     </row>
-    <row r="742" spans="2:9">
+    <row r="742" spans="1:9">
       <c r="B742" s="8" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C742" s="8"/>
       <c r="D742" s="8"/>
@@ -13719,9 +13698,9 @@
       <c r="H742" s="8"/>
       <c r="I742" s="8"/>
     </row>
-    <row r="743" spans="2:9">
+    <row r="743" spans="1:9">
       <c r="B743" s="8" t="s">
-        <v>731</v>
+        <v>288</v>
       </c>
       <c r="C743" s="8"/>
       <c r="D743" s="8"/>
@@ -13731,9 +13710,9 @@
       <c r="H743" s="8"/>
       <c r="I743" s="8"/>
     </row>
-    <row r="744" spans="2:9">
+    <row r="744" spans="1:9">
       <c r="B744" s="8" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="C744" s="8"/>
       <c r="D744" s="8"/>
@@ -13743,9 +13722,9 @@
       <c r="H744" s="8"/>
       <c r="I744" s="8"/>
     </row>
-    <row r="745" spans="2:9">
+    <row r="745" spans="1:9">
       <c r="B745" s="8" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="C745" s="8"/>
       <c r="D745" s="8"/>
@@ -13755,9 +13734,9 @@
       <c r="H745" s="8"/>
       <c r="I745" s="8"/>
     </row>
-    <row r="746" spans="2:9">
+    <row r="746" spans="1:9">
       <c r="B746" s="8" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C746" s="8"/>
       <c r="D746" s="8"/>
@@ -13767,9 +13746,9 @@
       <c r="H746" s="8"/>
       <c r="I746" s="8"/>
     </row>
-    <row r="747" spans="2:9">
+    <row r="747" spans="1:9">
       <c r="B747" s="8" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="C747" s="8"/>
       <c r="D747" s="8"/>
@@ -13779,9 +13758,9 @@
       <c r="H747" s="8"/>
       <c r="I747" s="8"/>
     </row>
-    <row r="748" spans="2:9">
+    <row r="748" spans="1:9">
       <c r="B748" s="8" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C748" s="8"/>
       <c r="D748" s="8"/>
@@ -13791,9 +13770,9 @@
       <c r="H748" s="8"/>
       <c r="I748" s="8"/>
     </row>
-    <row r="749" spans="2:9">
+    <row r="749" spans="1:9">
       <c r="B749" s="8" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C749" s="8"/>
       <c r="D749" s="8"/>
@@ -13803,9 +13782,9 @@
       <c r="H749" s="8"/>
       <c r="I749" s="8"/>
     </row>
-    <row r="750" spans="2:9">
+    <row r="750" spans="1:9">
       <c r="B750" s="8" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="C750" s="8"/>
       <c r="D750" s="8"/>
@@ -13815,9 +13794,9 @@
       <c r="H750" s="8"/>
       <c r="I750" s="8"/>
     </row>
-    <row r="751" spans="2:9">
+    <row r="751" spans="1:9">
       <c r="B751" s="8" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="C751" s="8"/>
       <c r="D751" s="8"/>
@@ -13827,9 +13806,9 @@
       <c r="H751" s="8"/>
       <c r="I751" s="8"/>
     </row>
-    <row r="752" spans="2:9">
+    <row r="752" spans="1:9">
       <c r="B752" s="8" t="s">
-        <v>740</v>
+        <v>288</v>
       </c>
       <c r="C752" s="8"/>
       <c r="D752" s="8"/>
@@ -13839,9 +13818,9 @@
       <c r="H752" s="8"/>
       <c r="I752" s="8"/>
     </row>
-    <row r="753" spans="1:9">
+    <row r="753" spans="2:9">
       <c r="B753" s="8" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C753" s="8"/>
       <c r="D753" s="8"/>
@@ -13851,9 +13830,9 @@
       <c r="H753" s="8"/>
       <c r="I753" s="8"/>
     </row>
-    <row r="754" spans="1:9">
+    <row r="754" spans="2:9">
       <c r="B754" s="8" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C754" s="8"/>
       <c r="D754" s="8"/>
@@ -13863,9 +13842,9 @@
       <c r="H754" s="8"/>
       <c r="I754" s="8"/>
     </row>
-    <row r="755" spans="1:9">
+    <row r="755" spans="2:9">
       <c r="B755" s="8" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C755" s="8"/>
       <c r="D755" s="8"/>
@@ -13875,25 +13854,45 @@
       <c r="H755" s="8"/>
       <c r="I755" s="8"/>
     </row>
-    <row r="758" spans="1:9">
-      <c r="A758" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B758,LEN(B758)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B758" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="C758" s="10"/>
-      <c r="D758" s="10"/>
-      <c r="E758" s="10"/>
-      <c r="F758" s="10"/>
-      <c r="G758" s="10"/>
-      <c r="H758" s="10"/>
-      <c r="I758" s="10"/>
-    </row>
-    <row r="759" spans="1:9">
+    <row r="756" spans="2:9">
+      <c r="B756" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C756" s="8"/>
+      <c r="D756" s="8"/>
+      <c r="E756" s="8"/>
+      <c r="F756" s="8"/>
+      <c r="G756" s="8"/>
+      <c r="H756" s="8"/>
+      <c r="I756" s="8"/>
+    </row>
+    <row r="757" spans="2:9">
+      <c r="B757" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C757" s="8"/>
+      <c r="D757" s="8"/>
+      <c r="E757" s="8"/>
+      <c r="F757" s="8"/>
+      <c r="G757" s="8"/>
+      <c r="H757" s="8"/>
+      <c r="I757" s="8"/>
+    </row>
+    <row r="758" spans="2:9">
+      <c r="B758" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C758" s="8"/>
+      <c r="D758" s="8"/>
+      <c r="E758" s="8"/>
+      <c r="F758" s="8"/>
+      <c r="G758" s="8"/>
+      <c r="H758" s="8"/>
+      <c r="I758" s="8"/>
+    </row>
+    <row r="759" spans="2:9">
       <c r="B759" s="8" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C759" s="8"/>
       <c r="D759" s="8"/>
@@ -13903,9 +13902,9 @@
       <c r="H759" s="8"/>
       <c r="I759" s="8"/>
     </row>
-    <row r="760" spans="1:9">
+    <row r="760" spans="2:9">
       <c r="B760" s="8" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C760" s="8"/>
       <c r="D760" s="8"/>
@@ -13915,9 +13914,9 @@
       <c r="H760" s="8"/>
       <c r="I760" s="8"/>
     </row>
-    <row r="761" spans="1:9">
+    <row r="761" spans="2:9">
       <c r="B761" s="8" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C761" s="8"/>
       <c r="D761" s="8"/>
@@ -13927,9 +13926,9 @@
       <c r="H761" s="8"/>
       <c r="I761" s="8"/>
     </row>
-    <row r="762" spans="1:9">
+    <row r="762" spans="2:9">
       <c r="B762" s="8" t="s">
-        <v>288</v>
+        <v>752</v>
       </c>
       <c r="C762" s="8"/>
       <c r="D762" s="8"/>
@@ -13939,9 +13938,9 @@
       <c r="H762" s="8"/>
       <c r="I762" s="8"/>
     </row>
-    <row r="763" spans="1:9">
+    <row r="763" spans="2:9">
       <c r="B763" s="8" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C763" s="8"/>
       <c r="D763" s="8"/>
@@ -13951,9 +13950,9 @@
       <c r="H763" s="8"/>
       <c r="I763" s="8"/>
     </row>
-    <row r="764" spans="1:9">
+    <row r="764" spans="2:9">
       <c r="B764" s="8" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="C764" s="8"/>
       <c r="D764" s="8"/>
@@ -13963,9 +13962,9 @@
       <c r="H764" s="8"/>
       <c r="I764" s="8"/>
     </row>
-    <row r="765" spans="1:9">
+    <row r="765" spans="2:9">
       <c r="B765" s="8" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C765" s="8"/>
       <c r="D765" s="8"/>
@@ -13975,9 +13974,9 @@
       <c r="H765" s="8"/>
       <c r="I765" s="8"/>
     </row>
-    <row r="766" spans="1:9">
+    <row r="766" spans="2:9">
       <c r="B766" s="8" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C766" s="8"/>
       <c r="D766" s="8"/>
@@ -13987,9 +13986,9 @@
       <c r="H766" s="8"/>
       <c r="I766" s="8"/>
     </row>
-    <row r="767" spans="1:9">
+    <row r="767" spans="2:9">
       <c r="B767" s="8" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="C767" s="8"/>
       <c r="D767" s="8"/>
@@ -13999,9 +13998,9 @@
       <c r="H767" s="8"/>
       <c r="I767" s="8"/>
     </row>
-    <row r="768" spans="1:9">
+    <row r="768" spans="2:9">
       <c r="B768" s="8" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C768" s="8"/>
       <c r="D768" s="8"/>
@@ -14013,7 +14012,7 @@
     </row>
     <row r="769" spans="2:9">
       <c r="B769" s="8" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C769" s="8"/>
       <c r="D769" s="8"/>
@@ -14025,7 +14024,7 @@
     </row>
     <row r="770" spans="2:9">
       <c r="B770" s="8" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C770" s="8"/>
       <c r="D770" s="8"/>
@@ -14037,7 +14036,7 @@
     </row>
     <row r="771" spans="2:9">
       <c r="B771" s="8" t="s">
-        <v>288</v>
+        <v>761</v>
       </c>
       <c r="C771" s="8"/>
       <c r="D771" s="8"/>
@@ -14049,7 +14048,7 @@
     </row>
     <row r="772" spans="2:9">
       <c r="B772" s="8" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="C772" s="8"/>
       <c r="D772" s="8"/>
@@ -14061,7 +14060,7 @@
     </row>
     <row r="773" spans="2:9">
       <c r="B773" s="8" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C773" s="8"/>
       <c r="D773" s="8"/>
@@ -14073,7 +14072,7 @@
     </row>
     <row r="774" spans="2:9">
       <c r="B774" s="8" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="C774" s="8"/>
       <c r="D774" s="8"/>
@@ -14085,7 +14084,7 @@
     </row>
     <row r="775" spans="2:9">
       <c r="B775" s="8" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C775" s="8"/>
       <c r="D775" s="8"/>
@@ -14097,7 +14096,7 @@
     </row>
     <row r="776" spans="2:9">
       <c r="B776" s="8" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C776" s="8"/>
       <c r="D776" s="8"/>
@@ -14109,7 +14108,7 @@
     </row>
     <row r="777" spans="2:9">
       <c r="B777" s="8" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="C777" s="8"/>
       <c r="D777" s="8"/>
@@ -14121,7 +14120,7 @@
     </row>
     <row r="778" spans="2:9">
       <c r="B778" s="8" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C778" s="8"/>
       <c r="D778" s="8"/>
@@ -14133,7 +14132,7 @@
     </row>
     <row r="779" spans="2:9">
       <c r="B779" s="8" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C779" s="8"/>
       <c r="D779" s="8"/>
@@ -14145,7 +14144,7 @@
     </row>
     <row r="780" spans="2:9">
       <c r="B780" s="8" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="C780" s="8"/>
       <c r="D780" s="8"/>
@@ -14157,7 +14156,7 @@
     </row>
     <row r="781" spans="2:9">
       <c r="B781" s="8" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C781" s="8"/>
       <c r="D781" s="8"/>
@@ -14169,7 +14168,7 @@
     </row>
     <row r="782" spans="2:9">
       <c r="B782" s="8" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C782" s="8"/>
       <c r="D782" s="8"/>
@@ -14181,7 +14180,7 @@
     </row>
     <row r="783" spans="2:9">
       <c r="B783" s="8" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="C783" s="8"/>
       <c r="D783" s="8"/>
@@ -14193,7 +14192,7 @@
     </row>
     <row r="784" spans="2:9">
       <c r="B784" s="8" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C784" s="8"/>
       <c r="D784" s="8"/>
@@ -14205,7 +14204,7 @@
     </row>
     <row r="785" spans="2:9">
       <c r="B785" s="8" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C785" s="8"/>
       <c r="D785" s="8"/>
@@ -14217,7 +14216,7 @@
     </row>
     <row r="786" spans="2:9">
       <c r="B786" s="8" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="C786" s="8"/>
       <c r="D786" s="8"/>
@@ -14229,7 +14228,7 @@
     </row>
     <row r="787" spans="2:9">
       <c r="B787" s="8" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C787" s="8"/>
       <c r="D787" s="8"/>
@@ -14241,7 +14240,7 @@
     </row>
     <row r="788" spans="2:9">
       <c r="B788" s="8" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
       <c r="C788" s="8"/>
       <c r="D788" s="8"/>
@@ -14253,7 +14252,7 @@
     </row>
     <row r="789" spans="2:9">
       <c r="B789" s="8" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C789" s="8"/>
       <c r="D789" s="8"/>
@@ -14265,7 +14264,7 @@
     </row>
     <row r="790" spans="2:9">
       <c r="B790" s="8" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C790" s="8"/>
       <c r="D790" s="8"/>
@@ -14277,7 +14276,7 @@
     </row>
     <row r="791" spans="2:9">
       <c r="B791" s="8" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C791" s="8"/>
       <c r="D791" s="8"/>
@@ -14289,7 +14288,7 @@
     </row>
     <row r="792" spans="2:9">
       <c r="B792" s="8" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C792" s="8"/>
       <c r="D792" s="8"/>
@@ -14301,7 +14300,7 @@
     </row>
     <row r="793" spans="2:9">
       <c r="B793" s="8" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C793" s="8"/>
       <c r="D793" s="8"/>
@@ -14313,7 +14312,7 @@
     </row>
     <row r="794" spans="2:9">
       <c r="B794" s="8" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="C794" s="8"/>
       <c r="D794" s="8"/>
@@ -14325,7 +14324,7 @@
     </row>
     <row r="795" spans="2:9">
       <c r="B795" s="8" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C795" s="8"/>
       <c r="D795" s="8"/>
@@ -14337,7 +14336,7 @@
     </row>
     <row r="796" spans="2:9">
       <c r="B796" s="8" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C796" s="8"/>
       <c r="D796" s="8"/>
@@ -14349,7 +14348,7 @@
     </row>
     <row r="797" spans="2:9">
       <c r="B797" s="8" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="C797" s="8"/>
       <c r="D797" s="8"/>
@@ -14361,7 +14360,7 @@
     </row>
     <row r="798" spans="2:9">
       <c r="B798" s="8" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="C798" s="8"/>
       <c r="D798" s="8"/>
@@ -14373,7 +14372,7 @@
     </row>
     <row r="799" spans="2:9">
       <c r="B799" s="8" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C799" s="8"/>
       <c r="D799" s="8"/>
@@ -14385,7 +14384,7 @@
     </row>
     <row r="800" spans="2:9">
       <c r="B800" s="8" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C800" s="8"/>
       <c r="D800" s="8"/>
@@ -14397,7 +14396,7 @@
     </row>
     <row r="801" spans="2:9">
       <c r="B801" s="8" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C801" s="8"/>
       <c r="D801" s="8"/>
@@ -14409,7 +14408,7 @@
     </row>
     <row r="802" spans="2:9">
       <c r="B802" s="8" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="C802" s="8"/>
       <c r="D802" s="8"/>
@@ -14421,7 +14420,7 @@
     </row>
     <row r="803" spans="2:9">
       <c r="B803" s="8" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="C803" s="8"/>
       <c r="D803" s="8"/>
@@ -14433,7 +14432,7 @@
     </row>
     <row r="804" spans="2:9">
       <c r="B804" s="8" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="C804" s="8"/>
       <c r="D804" s="8"/>
@@ -14445,7 +14444,7 @@
     </row>
     <row r="805" spans="2:9">
       <c r="B805" s="8" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C805" s="8"/>
       <c r="D805" s="8"/>
@@ -14457,7 +14456,7 @@
     </row>
     <row r="806" spans="2:9">
       <c r="B806" s="8" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C806" s="8"/>
       <c r="D806" s="8"/>
@@ -14469,7 +14468,7 @@
     </row>
     <row r="807" spans="2:9">
       <c r="B807" s="8" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="C807" s="8"/>
       <c r="D807" s="8"/>
@@ -14481,7 +14480,7 @@
     </row>
     <row r="808" spans="2:9">
       <c r="B808" s="8" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="C808" s="8"/>
       <c r="D808" s="8"/>
@@ -14493,7 +14492,7 @@
     </row>
     <row r="809" spans="2:9">
       <c r="B809" s="8" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C809" s="8"/>
       <c r="D809" s="8"/>
@@ -14505,7 +14504,7 @@
     </row>
     <row r="810" spans="2:9">
       <c r="B810" s="8" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="C810" s="8"/>
       <c r="D810" s="8"/>
@@ -14517,7 +14516,7 @@
     </row>
     <row r="811" spans="2:9">
       <c r="B811" s="8" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="C811" s="8"/>
       <c r="D811" s="8"/>
@@ -14529,7 +14528,7 @@
     </row>
     <row r="812" spans="2:9">
       <c r="B812" s="8" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="C812" s="8"/>
       <c r="D812" s="8"/>
@@ -14541,7 +14540,7 @@
     </row>
     <row r="813" spans="2:9">
       <c r="B813" s="8" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C813" s="8"/>
       <c r="D813" s="8"/>
@@ -14553,7 +14552,7 @@
     </row>
     <row r="814" spans="2:9">
       <c r="B814" s="8" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="C814" s="8"/>
       <c r="D814" s="8"/>
@@ -14565,7 +14564,7 @@
     </row>
     <row r="815" spans="2:9">
       <c r="B815" s="8" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="C815" s="8"/>
       <c r="D815" s="8"/>
@@ -14577,7 +14576,7 @@
     </row>
     <row r="816" spans="2:9">
       <c r="B816" s="8" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C816" s="8"/>
       <c r="D816" s="8"/>
@@ -14589,7 +14588,7 @@
     </row>
     <row r="817" spans="2:9">
       <c r="B817" s="8" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C817" s="8"/>
       <c r="D817" s="8"/>
@@ -14601,7 +14600,7 @@
     </row>
     <row r="818" spans="2:9">
       <c r="B818" s="8" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="C818" s="8"/>
       <c r="D818" s="8"/>
@@ -14613,7 +14612,7 @@
     </row>
     <row r="819" spans="2:9">
       <c r="B819" s="8" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C819" s="8"/>
       <c r="D819" s="8"/>
@@ -14625,7 +14624,7 @@
     </row>
     <row r="820" spans="2:9">
       <c r="B820" s="8" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C820" s="8"/>
       <c r="D820" s="8"/>
@@ -14637,7 +14636,7 @@
     </row>
     <row r="821" spans="2:9">
       <c r="B821" s="8" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C821" s="8"/>
       <c r="D821" s="8"/>
@@ -14649,7 +14648,7 @@
     </row>
     <row r="822" spans="2:9">
       <c r="B822" s="8" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C822" s="8"/>
       <c r="D822" s="8"/>
@@ -14661,7 +14660,7 @@
     </row>
     <row r="823" spans="2:9">
       <c r="B823" s="8" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C823" s="8"/>
       <c r="D823" s="8"/>
@@ -14673,7 +14672,7 @@
     </row>
     <row r="824" spans="2:9">
       <c r="B824" s="8" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C824" s="8"/>
       <c r="D824" s="8"/>
@@ -14685,7 +14684,7 @@
     </row>
     <row r="825" spans="2:9">
       <c r="B825" s="8" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="C825" s="8"/>
       <c r="D825" s="8"/>
@@ -14697,7 +14696,7 @@
     </row>
     <row r="826" spans="2:9">
       <c r="B826" s="8" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C826" s="8"/>
       <c r="D826" s="8"/>
@@ -14709,7 +14708,7 @@
     </row>
     <row r="827" spans="2:9">
       <c r="B827" s="8" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C827" s="8"/>
       <c r="D827" s="8"/>
@@ -14721,7 +14720,7 @@
     </row>
     <row r="828" spans="2:9">
       <c r="B828" s="8" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="C828" s="8"/>
       <c r="D828" s="8"/>
@@ -14733,7 +14732,7 @@
     </row>
     <row r="829" spans="2:9">
       <c r="B829" s="8" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="C829" s="8"/>
       <c r="D829" s="8"/>
@@ -14745,7 +14744,7 @@
     </row>
     <row r="830" spans="2:9">
       <c r="B830" s="8" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C830" s="8"/>
       <c r="D830" s="8"/>
@@ -14757,7 +14756,7 @@
     </row>
     <row r="831" spans="2:9">
       <c r="B831" s="8" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="C831" s="8"/>
       <c r="D831" s="8"/>
@@ -14769,7 +14768,7 @@
     </row>
     <row r="832" spans="2:9">
       <c r="B832" s="8" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="C832" s="8"/>
       <c r="D832" s="8"/>
@@ -14781,7 +14780,7 @@
     </row>
     <row r="833" spans="2:9">
       <c r="B833" s="8" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="C833" s="8"/>
       <c r="D833" s="8"/>
@@ -14793,7 +14792,7 @@
     </row>
     <row r="834" spans="2:9">
       <c r="B834" s="8" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C834" s="8"/>
       <c r="D834" s="8"/>
@@ -14805,7 +14804,7 @@
     </row>
     <row r="835" spans="2:9">
       <c r="B835" s="8" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="C835" s="8"/>
       <c r="D835" s="8"/>
@@ -14817,7 +14816,7 @@
     </row>
     <row r="836" spans="2:9">
       <c r="B836" s="8" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="C836" s="8"/>
       <c r="D836" s="8"/>
@@ -14829,7 +14828,7 @@
     </row>
     <row r="837" spans="2:9">
       <c r="B837" s="8" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="C837" s="8"/>
       <c r="D837" s="8"/>
@@ -14841,7 +14840,7 @@
     </row>
     <row r="838" spans="2:9">
       <c r="B838" s="8" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C838" s="8"/>
       <c r="D838" s="8"/>
@@ -14853,7 +14852,7 @@
     </row>
     <row r="839" spans="2:9">
       <c r="B839" s="8" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C839" s="8"/>
       <c r="D839" s="8"/>
@@ -14865,7 +14864,7 @@
     </row>
     <row r="840" spans="2:9">
       <c r="B840" s="8" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="C840" s="8"/>
       <c r="D840" s="8"/>
@@ -14877,7 +14876,7 @@
     </row>
     <row r="841" spans="2:9">
       <c r="B841" s="8" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="C841" s="8"/>
       <c r="D841" s="8"/>
@@ -14889,7 +14888,7 @@
     </row>
     <row r="842" spans="2:9">
       <c r="B842" s="8" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C842" s="8"/>
       <c r="D842" s="8"/>
@@ -14901,7 +14900,7 @@
     </row>
     <row r="843" spans="2:9">
       <c r="B843" s="8" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="C843" s="8"/>
       <c r="D843" s="8"/>
@@ -14913,7 +14912,7 @@
     </row>
     <row r="844" spans="2:9">
       <c r="B844" s="8" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="C844" s="8"/>
       <c r="D844" s="8"/>
@@ -14925,7 +14924,7 @@
     </row>
     <row r="845" spans="2:9">
       <c r="B845" s="8" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C845" s="8"/>
       <c r="D845" s="8"/>
@@ -14937,7 +14936,7 @@
     </row>
     <row r="846" spans="2:9">
       <c r="B846" s="8" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C846" s="8"/>
       <c r="D846" s="8"/>
@@ -14949,7 +14948,7 @@
     </row>
     <row r="847" spans="2:9">
       <c r="B847" s="8" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C847" s="8"/>
       <c r="D847" s="8"/>
@@ -14961,7 +14960,7 @@
     </row>
     <row r="848" spans="2:9">
       <c r="B848" s="8" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C848" s="8"/>
       <c r="D848" s="8"/>
@@ -14973,7 +14972,7 @@
     </row>
     <row r="849" spans="2:9">
       <c r="B849" s="8" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="C849" s="8"/>
       <c r="D849" s="8"/>
@@ -14985,7 +14984,7 @@
     </row>
     <row r="850" spans="2:9">
       <c r="B850" s="8" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C850" s="8"/>
       <c r="D850" s="8"/>
@@ -14997,7 +14996,7 @@
     </row>
     <row r="851" spans="2:9">
       <c r="B851" s="8" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C851" s="8"/>
       <c r="D851" s="8"/>
@@ -15009,7 +15008,7 @@
     </row>
     <row r="852" spans="2:9">
       <c r="B852" s="8" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C852" s="8"/>
       <c r="D852" s="8"/>
@@ -15021,7 +15020,7 @@
     </row>
     <row r="853" spans="2:9">
       <c r="B853" s="8" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C853" s="8"/>
       <c r="D853" s="8"/>
@@ -15033,7 +15032,7 @@
     </row>
     <row r="854" spans="2:9">
       <c r="B854" s="8" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C854" s="8"/>
       <c r="D854" s="8"/>
@@ -15045,7 +15044,7 @@
     </row>
     <row r="855" spans="2:9">
       <c r="B855" s="8" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C855" s="8"/>
       <c r="D855" s="8"/>
@@ -15057,7 +15056,7 @@
     </row>
     <row r="856" spans="2:9">
       <c r="B856" s="8" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C856" s="8"/>
       <c r="D856" s="8"/>
@@ -15069,7 +15068,7 @@
     </row>
     <row r="857" spans="2:9">
       <c r="B857" s="8" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C857" s="8"/>
       <c r="D857" s="8"/>
@@ -15081,7 +15080,7 @@
     </row>
     <row r="858" spans="2:9">
       <c r="B858" s="8" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C858" s="8"/>
       <c r="D858" s="8"/>
@@ -15093,7 +15092,7 @@
     </row>
     <row r="859" spans="2:9">
       <c r="B859" s="8" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C859" s="8"/>
       <c r="D859" s="8"/>
@@ -15105,7 +15104,7 @@
     </row>
     <row r="860" spans="2:9">
       <c r="B860" s="8" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C860" s="8"/>
       <c r="D860" s="8"/>
@@ -15117,7 +15116,7 @@
     </row>
     <row r="861" spans="2:9">
       <c r="B861" s="8" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C861" s="8"/>
       <c r="D861" s="8"/>
@@ -15129,7 +15128,7 @@
     </row>
     <row r="862" spans="2:9">
       <c r="B862" s="8" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C862" s="8"/>
       <c r="D862" s="8"/>
@@ -15141,7 +15140,7 @@
     </row>
     <row r="863" spans="2:9">
       <c r="B863" s="8" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C863" s="8"/>
       <c r="D863" s="8"/>
@@ -15153,7 +15152,7 @@
     </row>
     <row r="864" spans="2:9">
       <c r="B864" s="8" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C864" s="8"/>
       <c r="D864" s="8"/>
@@ -15165,7 +15164,7 @@
     </row>
     <row r="865" spans="2:9">
       <c r="B865" s="8" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C865" s="8"/>
       <c r="D865" s="8"/>
@@ -15177,7 +15176,7 @@
     </row>
     <row r="866" spans="2:9">
       <c r="B866" s="8" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="C866" s="8"/>
       <c r="D866" s="8"/>
@@ -15189,7 +15188,7 @@
     </row>
     <row r="867" spans="2:9">
       <c r="B867" s="8" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C867" s="8"/>
       <c r="D867" s="8"/>
@@ -15201,7 +15200,7 @@
     </row>
     <row r="868" spans="2:9">
       <c r="B868" s="8" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C868" s="8"/>
       <c r="D868" s="8"/>
@@ -15213,7 +15212,7 @@
     </row>
     <row r="869" spans="2:9">
       <c r="B869" s="8" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C869" s="8"/>
       <c r="D869" s="8"/>
@@ -15225,7 +15224,7 @@
     </row>
     <row r="870" spans="2:9">
       <c r="B870" s="8" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C870" s="8"/>
       <c r="D870" s="8"/>
@@ -15237,7 +15236,7 @@
     </row>
     <row r="871" spans="2:9">
       <c r="B871" s="8" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C871" s="8"/>
       <c r="D871" s="8"/>
@@ -15249,7 +15248,7 @@
     </row>
     <row r="872" spans="2:9">
       <c r="B872" s="8" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C872" s="8"/>
       <c r="D872" s="8"/>
@@ -15261,7 +15260,7 @@
     </row>
     <row r="873" spans="2:9">
       <c r="B873" s="8" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C873" s="8"/>
       <c r="D873" s="8"/>
@@ -15273,7 +15272,7 @@
     </row>
     <row r="874" spans="2:9">
       <c r="B874" s="8" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C874" s="8"/>
       <c r="D874" s="8"/>
@@ -15285,7 +15284,7 @@
     </row>
     <row r="875" spans="2:9">
       <c r="B875" s="8" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C875" s="8"/>
       <c r="D875" s="8"/>
@@ -15297,7 +15296,7 @@
     </row>
     <row r="876" spans="2:9">
       <c r="B876" s="8" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C876" s="8"/>
       <c r="D876" s="8"/>
@@ -15309,7 +15308,7 @@
     </row>
     <row r="877" spans="2:9">
       <c r="B877" s="8" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C877" s="8"/>
       <c r="D877" s="8"/>
@@ -15321,7 +15320,7 @@
     </row>
     <row r="878" spans="2:9">
       <c r="B878" s="8" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C878" s="8"/>
       <c r="D878" s="8"/>
@@ -15333,7 +15332,7 @@
     </row>
     <row r="879" spans="2:9">
       <c r="B879" s="8" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C879" s="8"/>
       <c r="D879" s="8"/>
@@ -15345,7 +15344,7 @@
     </row>
     <row r="880" spans="2:9">
       <c r="B880" s="8" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C880" s="8"/>
       <c r="D880" s="8"/>
@@ -15357,7 +15356,7 @@
     </row>
     <row r="881" spans="2:9">
       <c r="B881" s="8" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="C881" s="8"/>
       <c r="D881" s="8"/>
@@ -15369,7 +15368,7 @@
     </row>
     <row r="882" spans="2:9">
       <c r="B882" s="8" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C882" s="8"/>
       <c r="D882" s="8"/>
@@ -15381,7 +15380,7 @@
     </row>
     <row r="883" spans="2:9">
       <c r="B883" s="8" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C883" s="8"/>
       <c r="D883" s="8"/>
@@ -15393,7 +15392,7 @@
     </row>
     <row r="884" spans="2:9">
       <c r="B884" s="8" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C884" s="8"/>
       <c r="D884" s="8"/>
@@ -15405,7 +15404,7 @@
     </row>
     <row r="885" spans="2:9">
       <c r="B885" s="8" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C885" s="8"/>
       <c r="D885" s="8"/>
@@ -15417,7 +15416,7 @@
     </row>
     <row r="886" spans="2:9">
       <c r="B886" s="8" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C886" s="8"/>
       <c r="D886" s="8"/>
@@ -15429,7 +15428,7 @@
     </row>
     <row r="887" spans="2:9">
       <c r="B887" s="8" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="C887" s="8"/>
       <c r="D887" s="8"/>
@@ -15441,7 +15440,7 @@
     </row>
     <row r="888" spans="2:9">
       <c r="B888" s="8" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="C888" s="8"/>
       <c r="D888" s="8"/>
@@ -15453,7 +15452,7 @@
     </row>
     <row r="889" spans="2:9">
       <c r="B889" s="8" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C889" s="8"/>
       <c r="D889" s="8"/>
@@ -15465,7 +15464,7 @@
     </row>
     <row r="890" spans="2:9">
       <c r="B890" s="8" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="C890" s="8"/>
       <c r="D890" s="8"/>
@@ -15477,7 +15476,7 @@
     </row>
     <row r="891" spans="2:9">
       <c r="B891" s="8" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C891" s="8"/>
       <c r="D891" s="8"/>
@@ -15489,7 +15488,7 @@
     </row>
     <row r="892" spans="2:9">
       <c r="B892" s="8" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="C892" s="8"/>
       <c r="D892" s="8"/>
@@ -15501,7 +15500,7 @@
     </row>
     <row r="893" spans="2:9">
       <c r="B893" s="8" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="C893" s="8"/>
       <c r="D893" s="8"/>
@@ -15513,7 +15512,7 @@
     </row>
     <row r="894" spans="2:9">
       <c r="B894" s="8" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="C894" s="8"/>
       <c r="D894" s="8"/>
@@ -15525,7 +15524,7 @@
     </row>
     <row r="895" spans="2:9">
       <c r="B895" s="8" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="C895" s="8"/>
       <c r="D895" s="8"/>
@@ -15537,7 +15536,7 @@
     </row>
     <row r="896" spans="2:9">
       <c r="B896" s="8" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="C896" s="8"/>
       <c r="D896" s="8"/>
@@ -15549,7 +15548,7 @@
     </row>
     <row r="897" spans="2:9">
       <c r="B897" s="8" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="C897" s="8"/>
       <c r="D897" s="8"/>
@@ -15561,7 +15560,7 @@
     </row>
     <row r="898" spans="2:9">
       <c r="B898" s="8" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="C898" s="8"/>
       <c r="D898" s="8"/>
@@ -15573,7 +15572,7 @@
     </row>
     <row r="899" spans="2:9">
       <c r="B899" s="8" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="C899" s="8"/>
       <c r="D899" s="8"/>
@@ -15585,7 +15584,7 @@
     </row>
     <row r="900" spans="2:9">
       <c r="B900" s="8" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="C900" s="8"/>
       <c r="D900" s="8"/>
@@ -15597,7 +15596,7 @@
     </row>
     <row r="901" spans="2:9">
       <c r="B901" s="8" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="C901" s="8"/>
       <c r="D901" s="8"/>
@@ -15609,7 +15608,7 @@
     </row>
     <row r="902" spans="2:9">
       <c r="B902" s="8" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="C902" s="8"/>
       <c r="D902" s="8"/>
@@ -15621,7 +15620,7 @@
     </row>
     <row r="903" spans="2:9">
       <c r="B903" s="8" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C903" s="8"/>
       <c r="D903" s="8"/>
@@ -15633,7 +15632,7 @@
     </row>
     <row r="904" spans="2:9">
       <c r="B904" s="8" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C904" s="8"/>
       <c r="D904" s="8"/>
@@ -15645,7 +15644,7 @@
     </row>
     <row r="905" spans="2:9">
       <c r="B905" s="8" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="C905" s="8"/>
       <c r="D905" s="8"/>
@@ -15657,7 +15656,7 @@
     </row>
     <row r="906" spans="2:9">
       <c r="B906" s="8" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="C906" s="8"/>
       <c r="D906" s="8"/>
@@ -15669,7 +15668,7 @@
     </row>
     <row r="907" spans="2:9">
       <c r="B907" s="8" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="C907" s="8"/>
       <c r="D907" s="8"/>
@@ -15681,7 +15680,7 @@
     </row>
     <row r="908" spans="2:9">
       <c r="B908" s="8" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="C908" s="8"/>
       <c r="D908" s="8"/>
@@ -15693,7 +15692,7 @@
     </row>
     <row r="909" spans="2:9">
       <c r="B909" s="8" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="C909" s="8"/>
       <c r="D909" s="8"/>
@@ -15705,7 +15704,7 @@
     </row>
     <row r="910" spans="2:9">
       <c r="B910" s="8" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="C910" s="8"/>
       <c r="D910" s="8"/>
@@ -15717,7 +15716,7 @@
     </row>
     <row r="911" spans="2:9">
       <c r="B911" s="8" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C911" s="8"/>
       <c r="D911" s="8"/>
@@ -15729,7 +15728,7 @@
     </row>
     <row r="912" spans="2:9">
       <c r="B912" s="8" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C912" s="8"/>
       <c r="D912" s="8"/>
@@ -15741,7 +15740,7 @@
     </row>
     <row r="913" spans="2:9">
       <c r="B913" s="8" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="C913" s="8"/>
       <c r="D913" s="8"/>
@@ -15753,7 +15752,7 @@
     </row>
     <row r="914" spans="2:9">
       <c r="B914" s="8" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="C914" s="8"/>
       <c r="D914" s="8"/>
@@ -15765,7 +15764,7 @@
     </row>
     <row r="915" spans="2:9">
       <c r="B915" s="8" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C915" s="8"/>
       <c r="D915" s="8"/>
@@ -15777,7 +15776,7 @@
     </row>
     <row r="916" spans="2:9">
       <c r="B916" s="8" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="C916" s="8"/>
       <c r="D916" s="8"/>
@@ -15789,7 +15788,7 @@
     </row>
     <row r="917" spans="2:9">
       <c r="B917" s="8" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="C917" s="8"/>
       <c r="D917" s="8"/>
@@ -15801,7 +15800,7 @@
     </row>
     <row r="918" spans="2:9">
       <c r="B918" s="8" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="C918" s="8"/>
       <c r="D918" s="8"/>
@@ -15813,7 +15812,7 @@
     </row>
     <row r="919" spans="2:9">
       <c r="B919" s="8" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="C919" s="8"/>
       <c r="D919" s="8"/>
@@ -15825,7 +15824,7 @@
     </row>
     <row r="920" spans="2:9">
       <c r="B920" s="8" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="C920" s="8"/>
       <c r="D920" s="8"/>
@@ -15837,7 +15836,7 @@
     </row>
     <row r="921" spans="2:9">
       <c r="B921" s="8" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="C921" s="8"/>
       <c r="D921" s="8"/>
@@ -15849,7 +15848,7 @@
     </row>
     <row r="922" spans="2:9">
       <c r="B922" s="8" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="C922" s="8"/>
       <c r="D922" s="8"/>
@@ -15861,7 +15860,7 @@
     </row>
     <row r="923" spans="2:9">
       <c r="B923" s="8" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="C923" s="8"/>
       <c r="D923" s="8"/>
@@ -15873,7 +15872,7 @@
     </row>
     <row r="924" spans="2:9">
       <c r="B924" s="8" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="C924" s="8"/>
       <c r="D924" s="8"/>
@@ -15885,7 +15884,7 @@
     </row>
     <row r="925" spans="2:9">
       <c r="B925" s="8" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="C925" s="8"/>
       <c r="D925" s="8"/>
@@ -15897,7 +15896,7 @@
     </row>
     <row r="926" spans="2:9">
       <c r="B926" s="8" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="C926" s="8"/>
       <c r="D926" s="8"/>
@@ -15909,7 +15908,7 @@
     </row>
     <row r="927" spans="2:9">
       <c r="B927" s="8" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="C927" s="8"/>
       <c r="D927" s="8"/>
@@ -15921,7 +15920,7 @@
     </row>
     <row r="928" spans="2:9">
       <c r="B928" s="8" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="C928" s="8"/>
       <c r="D928" s="8"/>
@@ -15931,9 +15930,9 @@
       <c r="H928" s="8"/>
       <c r="I928" s="8"/>
     </row>
-    <row r="929" spans="2:9">
+    <row r="929" spans="1:9">
       <c r="B929" s="8" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="C929" s="8"/>
       <c r="D929" s="8"/>
@@ -15943,9 +15942,9 @@
       <c r="H929" s="8"/>
       <c r="I929" s="8"/>
     </row>
-    <row r="930" spans="2:9">
+    <row r="930" spans="1:9">
       <c r="B930" s="8" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="C930" s="8"/>
       <c r="D930" s="8"/>
@@ -15955,9 +15954,9 @@
       <c r="H930" s="8"/>
       <c r="I930" s="8"/>
     </row>
-    <row r="931" spans="2:9">
+    <row r="931" spans="1:9">
       <c r="B931" s="8" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C931" s="8"/>
       <c r="D931" s="8"/>
@@ -15967,45 +15966,25 @@
       <c r="H931" s="8"/>
       <c r="I931" s="8"/>
     </row>
-    <row r="932" spans="2:9">
-      <c r="B932" s="8" t="s">
-        <v>916</v>
-      </c>
-      <c r="C932" s="8"/>
-      <c r="D932" s="8"/>
-      <c r="E932" s="8"/>
-      <c r="F932" s="8"/>
-      <c r="G932" s="8"/>
-      <c r="H932" s="8"/>
-      <c r="I932" s="8"/>
-    </row>
-    <row r="933" spans="2:9">
-      <c r="B933" s="8" t="s">
-        <v>917</v>
-      </c>
-      <c r="C933" s="8"/>
-      <c r="D933" s="8"/>
-      <c r="E933" s="8"/>
-      <c r="F933" s="8"/>
-      <c r="G933" s="8"/>
-      <c r="H933" s="8"/>
-      <c r="I933" s="8"/>
-    </row>
-    <row r="934" spans="2:9">
-      <c r="B934" s="8" t="s">
-        <v>918</v>
-      </c>
-      <c r="C934" s="8"/>
-      <c r="D934" s="8"/>
-      <c r="E934" s="8"/>
-      <c r="F934" s="8"/>
-      <c r="G934" s="8"/>
-      <c r="H934" s="8"/>
-      <c r="I934" s="8"/>
-    </row>
-    <row r="935" spans="2:9">
+    <row r="934" spans="1:9">
+      <c r="A934" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B934,LEN(B934)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B934" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="C934" s="10"/>
+      <c r="D934" s="10"/>
+      <c r="E934" s="10"/>
+      <c r="F934" s="10"/>
+      <c r="G934" s="10"/>
+      <c r="H934" s="10"/>
+      <c r="I934" s="10"/>
+    </row>
+    <row r="935" spans="1:9">
       <c r="B935" s="8" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C935" s="8"/>
       <c r="D935" s="8"/>
@@ -16015,9 +15994,9 @@
       <c r="H935" s="8"/>
       <c r="I935" s="8"/>
     </row>
-    <row r="936" spans="2:9">
+    <row r="936" spans="1:9">
       <c r="B936" s="8" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C936" s="8"/>
       <c r="D936" s="8"/>
@@ -16027,9 +16006,9 @@
       <c r="H936" s="8"/>
       <c r="I936" s="8"/>
     </row>
-    <row r="937" spans="2:9">
+    <row r="937" spans="1:9">
       <c r="B937" s="8" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C937" s="8"/>
       <c r="D937" s="8"/>
@@ -16039,9 +16018,9 @@
       <c r="H937" s="8"/>
       <c r="I937" s="8"/>
     </row>
-    <row r="938" spans="2:9">
+    <row r="938" spans="1:9">
       <c r="B938" s="8" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C938" s="8"/>
       <c r="D938" s="8"/>
@@ -16051,9 +16030,9 @@
       <c r="H938" s="8"/>
       <c r="I938" s="8"/>
     </row>
-    <row r="939" spans="2:9">
+    <row r="939" spans="1:9">
       <c r="B939" s="8" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="C939" s="8"/>
       <c r="D939" s="8"/>
@@ -16063,9 +16042,9 @@
       <c r="H939" s="8"/>
       <c r="I939" s="8"/>
     </row>
-    <row r="940" spans="2:9">
+    <row r="940" spans="1:9">
       <c r="B940" s="8" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C940" s="8"/>
       <c r="D940" s="8"/>
@@ -16075,9 +16054,9 @@
       <c r="H940" s="8"/>
       <c r="I940" s="8"/>
     </row>
-    <row r="941" spans="2:9">
+    <row r="941" spans="1:9">
       <c r="B941" s="8" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="C941" s="8"/>
       <c r="D941" s="8"/>
@@ -16087,9 +16066,9 @@
       <c r="H941" s="8"/>
       <c r="I941" s="8"/>
     </row>
-    <row r="942" spans="2:9">
+    <row r="942" spans="1:9">
       <c r="B942" s="8" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C942" s="8"/>
       <c r="D942" s="8"/>
@@ -16099,9 +16078,9 @@
       <c r="H942" s="8"/>
       <c r="I942" s="8"/>
     </row>
-    <row r="943" spans="2:9">
+    <row r="943" spans="1:9">
       <c r="B943" s="8" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="C943" s="8"/>
       <c r="D943" s="8"/>
@@ -16111,9 +16090,9 @@
       <c r="H943" s="8"/>
       <c r="I943" s="8"/>
     </row>
-    <row r="944" spans="2:9">
+    <row r="944" spans="1:9">
       <c r="B944" s="8" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C944" s="8"/>
       <c r="D944" s="8"/>
@@ -16125,7 +16104,7 @@
     </row>
     <row r="945" spans="1:9">
       <c r="B945" s="8" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="C945" s="8"/>
       <c r="D945" s="8"/>
@@ -16137,7 +16116,7 @@
     </row>
     <row r="946" spans="1:9">
       <c r="B946" s="8" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C946" s="8"/>
       <c r="D946" s="8"/>
@@ -16149,7 +16128,7 @@
     </row>
     <row r="947" spans="1:9">
       <c r="B947" s="8" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="C947" s="8"/>
       <c r="D947" s="8"/>
@@ -16161,7 +16140,7 @@
     </row>
     <row r="948" spans="1:9">
       <c r="B948" s="8" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C948" s="8"/>
       <c r="D948" s="8"/>
@@ -16173,7 +16152,7 @@
     </row>
     <row r="949" spans="1:9">
       <c r="B949" s="8" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="C949" s="8"/>
       <c r="D949" s="8"/>
@@ -16185,7 +16164,7 @@
     </row>
     <row r="950" spans="1:9">
       <c r="B950" s="8" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C950" s="8"/>
       <c r="D950" s="8"/>
@@ -16195,61 +16174,61 @@
       <c r="H950" s="8"/>
       <c r="I950" s="8"/>
     </row>
+    <row r="951" spans="1:9">
+      <c r="B951" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="C951" s="8"/>
+      <c r="D951" s="8"/>
+      <c r="E951" s="8"/>
+      <c r="F951" s="8"/>
+      <c r="G951" s="8"/>
+      <c r="H951" s="8"/>
+      <c r="I951" s="8"/>
+    </row>
+    <row r="952" spans="1:9">
+      <c r="B952" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C952" s="8"/>
+      <c r="D952" s="8"/>
+      <c r="E952" s="8"/>
+      <c r="F952" s="8"/>
+      <c r="G952" s="8"/>
+      <c r="H952" s="8"/>
+      <c r="I952" s="8"/>
+    </row>
     <row r="953" spans="1:9">
-      <c r="A953" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B953,LEN(B953)-8),B:B,0))),"Back")</f>
+      <c r="B953" s="8" t="s">
+        <v>941</v>
+      </c>
+      <c r="C953" s="8"/>
+      <c r="D953" s="8"/>
+      <c r="E953" s="8"/>
+      <c r="F953" s="8"/>
+      <c r="G953" s="8"/>
+      <c r="H953" s="8"/>
+      <c r="I953" s="8"/>
+    </row>
+    <row r="956" spans="1:9">
+      <c r="A956" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B956,LEN(B956)-8),B:B,0))),"Back")</f>
         <v>0</v>
       </c>
-      <c r="B953" s="10" t="s">
-        <v>935</v>
-      </c>
-      <c r="C953" s="10"/>
-      <c r="D953" s="10"/>
-      <c r="E953" s="10"/>
-      <c r="F953" s="10"/>
-      <c r="G953" s="10"/>
-      <c r="H953" s="10"/>
-      <c r="I953" s="10"/>
-    </row>
-    <row r="954" spans="1:9">
-      <c r="B954" s="8" t="s">
-        <v>936</v>
-      </c>
-      <c r="C954" s="8"/>
-      <c r="D954" s="8"/>
-      <c r="E954" s="8"/>
-      <c r="F954" s="8"/>
-      <c r="G954" s="8"/>
-      <c r="H954" s="8"/>
-      <c r="I954" s="8"/>
-    </row>
-    <row r="955" spans="1:9">
-      <c r="B955" s="8" t="s">
-        <v>937</v>
-      </c>
-      <c r="C955" s="8"/>
-      <c r="D955" s="8"/>
-      <c r="E955" s="8"/>
-      <c r="F955" s="8"/>
-      <c r="G955" s="8"/>
-      <c r="H955" s="8"/>
-      <c r="I955" s="8"/>
-    </row>
-    <row r="956" spans="1:9">
-      <c r="B956" s="8" t="s">
-        <v>938</v>
-      </c>
-      <c r="C956" s="8"/>
-      <c r="D956" s="8"/>
-      <c r="E956" s="8"/>
-      <c r="F956" s="8"/>
-      <c r="G956" s="8"/>
-      <c r="H956" s="8"/>
-      <c r="I956" s="8"/>
+      <c r="B956" s="10" t="s">
+        <v>942</v>
+      </c>
+      <c r="C956" s="10"/>
+      <c r="D956" s="10"/>
+      <c r="E956" s="10"/>
+      <c r="F956" s="10"/>
+      <c r="G956" s="10"/>
+      <c r="H956" s="10"/>
+      <c r="I956" s="10"/>
     </row>
     <row r="957" spans="1:9">
       <c r="B957" s="8" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="C957" s="8"/>
       <c r="D957" s="8"/>
@@ -16261,7 +16240,7 @@
     </row>
     <row r="958" spans="1:9">
       <c r="B958" s="8" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C958" s="8"/>
       <c r="D958" s="8"/>
@@ -16273,7 +16252,7 @@
     </row>
     <row r="959" spans="1:9">
       <c r="B959" s="8" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="C959" s="8"/>
       <c r="D959" s="8"/>
@@ -16285,7 +16264,7 @@
     </row>
     <row r="960" spans="1:9">
       <c r="B960" s="8" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C960" s="8"/>
       <c r="D960" s="8"/>
@@ -16297,7 +16276,7 @@
     </row>
     <row r="961" spans="1:9">
       <c r="B961" s="8" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="C961" s="8"/>
       <c r="D961" s="8"/>
@@ -16309,7 +16288,7 @@
     </row>
     <row r="962" spans="1:9">
       <c r="B962" s="8" t="s">
-        <v>944</v>
+        <v>552</v>
       </c>
       <c r="C962" s="8"/>
       <c r="D962" s="8"/>
@@ -16319,45 +16298,25 @@
       <c r="H962" s="8"/>
       <c r="I962" s="8"/>
     </row>
-    <row r="963" spans="1:9">
-      <c r="B963" s="8" t="s">
-        <v>945</v>
-      </c>
-      <c r="C963" s="8"/>
-      <c r="D963" s="8"/>
-      <c r="E963" s="8"/>
-      <c r="F963" s="8"/>
-      <c r="G963" s="8"/>
-      <c r="H963" s="8"/>
-      <c r="I963" s="8"/>
-    </row>
-    <row r="964" spans="1:9">
-      <c r="B964" s="8" t="s">
-        <v>946</v>
-      </c>
-      <c r="C964" s="8"/>
-      <c r="D964" s="8"/>
-      <c r="E964" s="8"/>
-      <c r="F964" s="8"/>
-      <c r="G964" s="8"/>
-      <c r="H964" s="8"/>
-      <c r="I964" s="8"/>
-    </row>
     <row r="965" spans="1:9">
-      <c r="B965" s="8" t="s">
-        <v>947</v>
-      </c>
-      <c r="C965" s="8"/>
-      <c r="D965" s="8"/>
-      <c r="E965" s="8"/>
-      <c r="F965" s="8"/>
-      <c r="G965" s="8"/>
-      <c r="H965" s="8"/>
-      <c r="I965" s="8"/>
+      <c r="A965" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B965,LEN(B965)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B965" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="C965" s="10"/>
+      <c r="D965" s="10"/>
+      <c r="E965" s="10"/>
+      <c r="F965" s="10"/>
+      <c r="G965" s="10"/>
+      <c r="H965" s="10"/>
+      <c r="I965" s="10"/>
     </row>
     <row r="966" spans="1:9">
       <c r="B966" s="8" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C966" s="8"/>
       <c r="D966" s="8"/>
@@ -16369,7 +16328,7 @@
     </row>
     <row r="967" spans="1:9">
       <c r="B967" s="8" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C967" s="8"/>
       <c r="D967" s="8"/>
@@ -16381,7 +16340,7 @@
     </row>
     <row r="968" spans="1:9">
       <c r="B968" s="8" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C968" s="8"/>
       <c r="D968" s="8"/>
@@ -16393,7 +16352,7 @@
     </row>
     <row r="969" spans="1:9">
       <c r="B969" s="8" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C969" s="8"/>
       <c r="D969" s="8"/>
@@ -16405,7 +16364,7 @@
     </row>
     <row r="970" spans="1:9">
       <c r="B970" s="8" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C970" s="8"/>
       <c r="D970" s="8"/>
@@ -16417,7 +16376,7 @@
     </row>
     <row r="971" spans="1:9">
       <c r="B971" s="8" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C971" s="8"/>
       <c r="D971" s="8"/>
@@ -16429,7 +16388,7 @@
     </row>
     <row r="972" spans="1:9">
       <c r="B972" s="8" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C972" s="8"/>
       <c r="D972" s="8"/>
@@ -16439,37 +16398,37 @@
       <c r="H972" s="8"/>
       <c r="I972" s="8"/>
     </row>
-    <row r="975" spans="1:9">
-      <c r="A975" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B975,LEN(B975)-8),B:B,0))),"Back")</f>
+    <row r="973" spans="1:9">
+      <c r="B973" s="8" t="s">
+        <v>956</v>
+      </c>
+      <c r="C973" s="8"/>
+      <c r="D973" s="8"/>
+      <c r="E973" s="8"/>
+      <c r="F973" s="8"/>
+      <c r="G973" s="8"/>
+      <c r="H973" s="8"/>
+      <c r="I973" s="8"/>
+    </row>
+    <row r="976" spans="1:9">
+      <c r="A976" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B976,LEN(B976)-8),B:B,0))),"Back")</f>
         <v>0</v>
       </c>
-      <c r="B975" s="10" t="s">
-        <v>955</v>
-      </c>
-      <c r="C975" s="10"/>
-      <c r="D975" s="10"/>
-      <c r="E975" s="10"/>
-      <c r="F975" s="10"/>
-      <c r="G975" s="10"/>
-      <c r="H975" s="10"/>
-      <c r="I975" s="10"/>
-    </row>
-    <row r="976" spans="1:9">
-      <c r="B976" s="8" t="s">
-        <v>956</v>
-      </c>
-      <c r="C976" s="8"/>
-      <c r="D976" s="8"/>
-      <c r="E976" s="8"/>
-      <c r="F976" s="8"/>
-      <c r="G976" s="8"/>
-      <c r="H976" s="8"/>
-      <c r="I976" s="8"/>
+      <c r="B976" s="10" t="s">
+        <v>957</v>
+      </c>
+      <c r="C976" s="10"/>
+      <c r="D976" s="10"/>
+      <c r="E976" s="10"/>
+      <c r="F976" s="10"/>
+      <c r="G976" s="10"/>
+      <c r="H976" s="10"/>
+      <c r="I976" s="10"/>
     </row>
     <row r="977" spans="1:9">
       <c r="B977" s="8" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="C977" s="8"/>
       <c r="D977" s="8"/>
@@ -16481,7 +16440,7 @@
     </row>
     <row r="978" spans="1:9">
       <c r="B978" s="8" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C978" s="8"/>
       <c r="D978" s="8"/>
@@ -16493,7 +16452,7 @@
     </row>
     <row r="979" spans="1:9">
       <c r="B979" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C979" s="8"/>
       <c r="D979" s="8"/>
@@ -16505,7 +16464,7 @@
     </row>
     <row r="980" spans="1:9">
       <c r="B980" s="8" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C980" s="8"/>
       <c r="D980" s="8"/>
@@ -16517,7 +16476,7 @@
     </row>
     <row r="981" spans="1:9">
       <c r="B981" s="8" t="s">
-        <v>552</v>
+        <v>962</v>
       </c>
       <c r="C981" s="8"/>
       <c r="D981" s="8"/>
@@ -16527,61 +16486,61 @@
       <c r="H981" s="8"/>
       <c r="I981" s="8"/>
     </row>
+    <row r="982" spans="1:9">
+      <c r="B982" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="C982" s="8"/>
+      <c r="D982" s="8"/>
+      <c r="E982" s="8"/>
+      <c r="F982" s="8"/>
+      <c r="G982" s="8"/>
+      <c r="H982" s="8"/>
+      <c r="I982" s="8"/>
+    </row>
+    <row r="983" spans="1:9">
+      <c r="B983" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="C983" s="8"/>
+      <c r="D983" s="8"/>
+      <c r="E983" s="8"/>
+      <c r="F983" s="8"/>
+      <c r="G983" s="8"/>
+      <c r="H983" s="8"/>
+      <c r="I983" s="8"/>
+    </row>
     <row r="984" spans="1:9">
-      <c r="A984" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B984,LEN(B984)-8),B:B,0))),"Back")</f>
+      <c r="B984" s="8" t="s">
+        <v>965</v>
+      </c>
+      <c r="C984" s="8"/>
+      <c r="D984" s="8"/>
+      <c r="E984" s="8"/>
+      <c r="F984" s="8"/>
+      <c r="G984" s="8"/>
+      <c r="H984" s="8"/>
+      <c r="I984" s="8"/>
+    </row>
+    <row r="987" spans="1:9">
+      <c r="A987" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B987,LEN(B987)-8),B:B,0))),"Back")</f>
         <v>0</v>
       </c>
-      <c r="B984" s="10" t="s">
-        <v>961</v>
-      </c>
-      <c r="C984" s="10"/>
-      <c r="D984" s="10"/>
-      <c r="E984" s="10"/>
-      <c r="F984" s="10"/>
-      <c r="G984" s="10"/>
-      <c r="H984" s="10"/>
-      <c r="I984" s="10"/>
-    </row>
-    <row r="985" spans="1:9">
-      <c r="B985" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="C985" s="8"/>
-      <c r="D985" s="8"/>
-      <c r="E985" s="8"/>
-      <c r="F985" s="8"/>
-      <c r="G985" s="8"/>
-      <c r="H985" s="8"/>
-      <c r="I985" s="8"/>
-    </row>
-    <row r="986" spans="1:9">
-      <c r="B986" s="8" t="s">
-        <v>963</v>
-      </c>
-      <c r="C986" s="8"/>
-      <c r="D986" s="8"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="8"/>
-      <c r="H986" s="8"/>
-      <c r="I986" s="8"/>
-    </row>
-    <row r="987" spans="1:9">
-      <c r="B987" s="8" t="s">
-        <v>964</v>
-      </c>
-      <c r="C987" s="8"/>
-      <c r="D987" s="8"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
-      <c r="G987" s="8"/>
-      <c r="H987" s="8"/>
-      <c r="I987" s="8"/>
+      <c r="B987" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="C987" s="10"/>
+      <c r="D987" s="10"/>
+      <c r="E987" s="10"/>
+      <c r="F987" s="10"/>
+      <c r="G987" s="10"/>
+      <c r="H987" s="10"/>
+      <c r="I987" s="10"/>
     </row>
     <row r="988" spans="1:9">
       <c r="B988" s="8" t="s">
-        <v>965</v>
+        <v>288</v>
       </c>
       <c r="C988" s="8"/>
       <c r="D988" s="8"/>
@@ -16593,7 +16552,7 @@
     </row>
     <row r="989" spans="1:9">
       <c r="B989" s="8" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C989" s="8"/>
       <c r="D989" s="8"/>
@@ -16605,7 +16564,7 @@
     </row>
     <row r="990" spans="1:9">
       <c r="B990" s="8" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C990" s="8"/>
       <c r="D990" s="8"/>
@@ -16617,7 +16576,7 @@
     </row>
     <row r="991" spans="1:9">
       <c r="B991" s="8" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C991" s="8"/>
       <c r="D991" s="8"/>
@@ -16629,7 +16588,7 @@
     </row>
     <row r="992" spans="1:9">
       <c r="B992" s="8" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C992" s="8"/>
       <c r="D992" s="8"/>
@@ -16639,25 +16598,45 @@
       <c r="H992" s="8"/>
       <c r="I992" s="8"/>
     </row>
+    <row r="993" spans="1:9">
+      <c r="B993" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="C993" s="8"/>
+      <c r="D993" s="8"/>
+      <c r="E993" s="8"/>
+      <c r="F993" s="8"/>
+      <c r="G993" s="8"/>
+      <c r="H993" s="8"/>
+      <c r="I993" s="8"/>
+    </row>
+    <row r="994" spans="1:9">
+      <c r="B994" s="8" t="s">
+        <v>972</v>
+      </c>
+      <c r="C994" s="8"/>
+      <c r="D994" s="8"/>
+      <c r="E994" s="8"/>
+      <c r="F994" s="8"/>
+      <c r="G994" s="8"/>
+      <c r="H994" s="8"/>
+      <c r="I994" s="8"/>
+    </row>
     <row r="995" spans="1:9">
-      <c r="A995" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B995,LEN(B995)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B995" s="10" t="s">
-        <v>970</v>
-      </c>
-      <c r="C995" s="10"/>
-      <c r="D995" s="10"/>
-      <c r="E995" s="10"/>
-      <c r="F995" s="10"/>
-      <c r="G995" s="10"/>
-      <c r="H995" s="10"/>
-      <c r="I995" s="10"/>
+      <c r="B995" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="C995" s="8"/>
+      <c r="D995" s="8"/>
+      <c r="E995" s="8"/>
+      <c r="F995" s="8"/>
+      <c r="G995" s="8"/>
+      <c r="H995" s="8"/>
+      <c r="I995" s="8"/>
     </row>
     <row r="996" spans="1:9">
       <c r="B996" s="8" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C996" s="8"/>
       <c r="D996" s="8"/>
@@ -16669,7 +16648,7 @@
     </row>
     <row r="997" spans="1:9">
       <c r="B997" s="8" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C997" s="8"/>
       <c r="D997" s="8"/>
@@ -16681,7 +16660,7 @@
     </row>
     <row r="998" spans="1:9">
       <c r="B998" s="8" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="C998" s="8"/>
       <c r="D998" s="8"/>
@@ -16693,7 +16672,7 @@
     </row>
     <row r="999" spans="1:9">
       <c r="B999" s="8" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="C999" s="8"/>
       <c r="D999" s="8"/>
@@ -16705,7 +16684,7 @@
     </row>
     <row r="1000" spans="1:9">
       <c r="B1000" s="8" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C1000" s="8"/>
       <c r="D1000" s="8"/>
@@ -16715,73 +16694,53 @@
       <c r="H1000" s="8"/>
       <c r="I1000" s="8"/>
     </row>
-    <row r="1001" spans="1:9">
-      <c r="B1001" s="8" t="s">
-        <v>976</v>
-      </c>
-      <c r="C1001" s="8"/>
-      <c r="D1001" s="8"/>
-      <c r="E1001" s="8"/>
-      <c r="F1001" s="8"/>
-      <c r="G1001" s="8"/>
-      <c r="H1001" s="8"/>
-      <c r="I1001" s="8"/>
-    </row>
-    <row r="1002" spans="1:9">
-      <c r="B1002" s="8" t="s">
-        <v>977</v>
-      </c>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="8"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
-      <c r="H1002" s="8"/>
-      <c r="I1002" s="8"/>
-    </row>
     <row r="1003" spans="1:9">
-      <c r="B1003" s="8" t="s">
-        <v>978</v>
-      </c>
-      <c r="C1003" s="8"/>
-      <c r="D1003" s="8"/>
-      <c r="E1003" s="8"/>
-      <c r="F1003" s="8"/>
-      <c r="G1003" s="8"/>
-      <c r="H1003" s="8"/>
-      <c r="I1003" s="8"/>
-    </row>
-    <row r="1006" spans="1:9">
-      <c r="A1006" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1006,LEN(B1006)-8),B:B,0))),"Back")</f>
+      <c r="A1003" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1003,LEN(B1003)-8),B:B,0))),"Back")</f>
         <v>0</v>
       </c>
-      <c r="B1006" s="10" t="s">
+      <c r="B1003" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="C1006" s="10"/>
-      <c r="D1006" s="10"/>
-      <c r="E1006" s="10"/>
-      <c r="F1006" s="10"/>
-      <c r="G1006" s="10"/>
-      <c r="H1006" s="10"/>
-      <c r="I1006" s="10"/>
+      <c r="C1003" s="10"/>
+      <c r="D1003" s="10"/>
+      <c r="E1003" s="10"/>
+      <c r="F1003" s="10"/>
+      <c r="G1003" s="10"/>
+      <c r="H1003" s="10"/>
+      <c r="I1003" s="10"/>
+    </row>
+    <row r="1004" spans="1:9">
+      <c r="B1004" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1004" s="8"/>
+      <c r="D1004" s="8"/>
+      <c r="E1004" s="8"/>
+      <c r="F1004" s="8"/>
+      <c r="G1004" s="8"/>
+      <c r="H1004" s="8"/>
+      <c r="I1004" s="8"/>
     </row>
     <row r="1007" spans="1:9">
-      <c r="B1007" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1007" s="8"/>
-      <c r="D1007" s="8"/>
-      <c r="E1007" s="8"/>
-      <c r="F1007" s="8"/>
-      <c r="G1007" s="8"/>
-      <c r="H1007" s="8"/>
-      <c r="I1007" s="8"/>
+      <c r="A1007" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1007,LEN(B1007)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1007" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="C1007" s="10"/>
+      <c r="D1007" s="10"/>
+      <c r="E1007" s="10"/>
+      <c r="F1007" s="10"/>
+      <c r="G1007" s="10"/>
+      <c r="H1007" s="10"/>
+      <c r="I1007" s="10"/>
     </row>
     <row r="1008" spans="1:9">
       <c r="B1008" s="8" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C1008" s="8"/>
       <c r="D1008" s="8"/>
@@ -16791,45 +16750,25 @@
       <c r="H1008" s="8"/>
       <c r="I1008" s="8"/>
     </row>
-    <row r="1009" spans="1:9">
-      <c r="B1009" s="8" t="s">
-        <v>981</v>
-      </c>
-      <c r="C1009" s="8"/>
-      <c r="D1009" s="8"/>
-      <c r="E1009" s="8"/>
-      <c r="F1009" s="8"/>
-      <c r="G1009" s="8"/>
-      <c r="H1009" s="8"/>
-      <c r="I1009" s="8"/>
-    </row>
-    <row r="1010" spans="1:9">
-      <c r="B1010" s="8" t="s">
-        <v>982</v>
-      </c>
-      <c r="C1010" s="8"/>
-      <c r="D1010" s="8"/>
-      <c r="E1010" s="8"/>
-      <c r="F1010" s="8"/>
-      <c r="G1010" s="8"/>
-      <c r="H1010" s="8"/>
-      <c r="I1010" s="8"/>
-    </row>
     <row r="1011" spans="1:9">
-      <c r="B1011" s="8" t="s">
+      <c r="A1011" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1011,LEN(B1011)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1011" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="C1011" s="8"/>
-      <c r="D1011" s="8"/>
-      <c r="E1011" s="8"/>
-      <c r="F1011" s="8"/>
-      <c r="G1011" s="8"/>
-      <c r="H1011" s="8"/>
-      <c r="I1011" s="8"/>
+      <c r="C1011" s="10"/>
+      <c r="D1011" s="10"/>
+      <c r="E1011" s="10"/>
+      <c r="F1011" s="10"/>
+      <c r="G1011" s="10"/>
+      <c r="H1011" s="10"/>
+      <c r="I1011" s="10"/>
     </row>
     <row r="1012" spans="1:9">
       <c r="B1012" s="8" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C1012" s="8"/>
       <c r="D1012" s="8"/>
@@ -16839,45 +16778,25 @@
       <c r="H1012" s="8"/>
       <c r="I1012" s="8"/>
     </row>
-    <row r="1013" spans="1:9">
-      <c r="B1013" s="8" t="s">
-        <v>985</v>
-      </c>
-      <c r="C1013" s="8"/>
-      <c r="D1013" s="8"/>
-      <c r="E1013" s="8"/>
-      <c r="F1013" s="8"/>
-      <c r="G1013" s="8"/>
-      <c r="H1013" s="8"/>
-      <c r="I1013" s="8"/>
-    </row>
-    <row r="1014" spans="1:9">
-      <c r="B1014" s="8" t="s">
-        <v>986</v>
-      </c>
-      <c r="C1014" s="8"/>
-      <c r="D1014" s="8"/>
-      <c r="E1014" s="8"/>
-      <c r="F1014" s="8"/>
-      <c r="G1014" s="8"/>
-      <c r="H1014" s="8"/>
-      <c r="I1014" s="8"/>
-    </row>
     <row r="1015" spans="1:9">
-      <c r="B1015" s="8" t="s">
-        <v>987</v>
-      </c>
-      <c r="C1015" s="8"/>
-      <c r="D1015" s="8"/>
-      <c r="E1015" s="8"/>
-      <c r="F1015" s="8"/>
-      <c r="G1015" s="8"/>
-      <c r="H1015" s="8"/>
-      <c r="I1015" s="8"/>
+      <c r="A1015" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1015,LEN(B1015)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1015" s="10" t="s">
+        <v>984</v>
+      </c>
+      <c r="C1015" s="10"/>
+      <c r="D1015" s="10"/>
+      <c r="E1015" s="10"/>
+      <c r="F1015" s="10"/>
+      <c r="G1015" s="10"/>
+      <c r="H1015" s="10"/>
+      <c r="I1015" s="10"/>
     </row>
     <row r="1016" spans="1:9">
       <c r="B1016" s="8" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C1016" s="8"/>
       <c r="D1016" s="8"/>
@@ -16889,7 +16808,7 @@
     </row>
     <row r="1017" spans="1:9">
       <c r="B1017" s="8" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="C1017" s="8"/>
       <c r="D1017" s="8"/>
@@ -16901,7 +16820,7 @@
     </row>
     <row r="1018" spans="1:9">
       <c r="B1018" s="8" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C1018" s="8"/>
       <c r="D1018" s="8"/>
@@ -16913,7 +16832,7 @@
     </row>
     <row r="1019" spans="1:9">
       <c r="B1019" s="8" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C1019" s="8"/>
       <c r="D1019" s="8"/>
@@ -16923,25 +16842,45 @@
       <c r="H1019" s="8"/>
       <c r="I1019" s="8"/>
     </row>
+    <row r="1020" spans="1:9">
+      <c r="B1020" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="C1020" s="8"/>
+      <c r="D1020" s="8"/>
+      <c r="E1020" s="8"/>
+      <c r="F1020" s="8"/>
+      <c r="G1020" s="8"/>
+      <c r="H1020" s="8"/>
+      <c r="I1020" s="8"/>
+    </row>
+    <row r="1021" spans="1:9">
+      <c r="B1021" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1021" s="8"/>
+      <c r="D1021" s="8"/>
+      <c r="E1021" s="8"/>
+      <c r="F1021" s="8"/>
+      <c r="G1021" s="8"/>
+      <c r="H1021" s="8"/>
+      <c r="I1021" s="8"/>
+    </row>
     <row r="1022" spans="1:9">
-      <c r="A1022" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1022,LEN(B1022)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1022" s="10" t="s">
-        <v>992</v>
-      </c>
-      <c r="C1022" s="10"/>
-      <c r="D1022" s="10"/>
-      <c r="E1022" s="10"/>
-      <c r="F1022" s="10"/>
-      <c r="G1022" s="10"/>
-      <c r="H1022" s="10"/>
-      <c r="I1022" s="10"/>
+      <c r="B1022" s="8" t="s">
+        <v>991</v>
+      </c>
+      <c r="C1022" s="8"/>
+      <c r="D1022" s="8"/>
+      <c r="E1022" s="8"/>
+      <c r="F1022" s="8"/>
+      <c r="G1022" s="8"/>
+      <c r="H1022" s="8"/>
+      <c r="I1022" s="8"/>
     </row>
     <row r="1023" spans="1:9">
       <c r="B1023" s="8" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C1023" s="8"/>
       <c r="D1023" s="8"/>
@@ -16951,25 +16890,45 @@
       <c r="H1023" s="8"/>
       <c r="I1023" s="8"/>
     </row>
+    <row r="1024" spans="1:9">
+      <c r="B1024" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="C1024" s="8"/>
+      <c r="D1024" s="8"/>
+      <c r="E1024" s="8"/>
+      <c r="F1024" s="8"/>
+      <c r="G1024" s="8"/>
+      <c r="H1024" s="8"/>
+      <c r="I1024" s="8"/>
+    </row>
+    <row r="1025" spans="1:9">
+      <c r="B1025" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="C1025" s="8"/>
+      <c r="D1025" s="8"/>
+      <c r="E1025" s="8"/>
+      <c r="F1025" s="8"/>
+      <c r="G1025" s="8"/>
+      <c r="H1025" s="8"/>
+      <c r="I1025" s="8"/>
+    </row>
     <row r="1026" spans="1:9">
-      <c r="A1026" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1026,LEN(B1026)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1026" s="10" t="s">
-        <v>994</v>
-      </c>
-      <c r="C1026" s="10"/>
-      <c r="D1026" s="10"/>
-      <c r="E1026" s="10"/>
-      <c r="F1026" s="10"/>
-      <c r="G1026" s="10"/>
-      <c r="H1026" s="10"/>
-      <c r="I1026" s="10"/>
+      <c r="B1026" s="8" t="s">
+        <v>995</v>
+      </c>
+      <c r="C1026" s="8"/>
+      <c r="D1026" s="8"/>
+      <c r="E1026" s="8"/>
+      <c r="F1026" s="8"/>
+      <c r="G1026" s="8"/>
+      <c r="H1026" s="8"/>
+      <c r="I1026" s="8"/>
     </row>
     <row r="1027" spans="1:9">
       <c r="B1027" s="8" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C1027" s="8"/>
       <c r="D1027" s="8"/>
@@ -16979,25 +16938,45 @@
       <c r="H1027" s="8"/>
       <c r="I1027" s="8"/>
     </row>
+    <row r="1028" spans="1:9">
+      <c r="B1028" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C1028" s="8"/>
+      <c r="D1028" s="8"/>
+      <c r="E1028" s="8"/>
+      <c r="F1028" s="8"/>
+      <c r="G1028" s="8"/>
+      <c r="H1028" s="8"/>
+      <c r="I1028" s="8"/>
+    </row>
+    <row r="1029" spans="1:9">
+      <c r="B1029" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1029" s="8"/>
+      <c r="D1029" s="8"/>
+      <c r="E1029" s="8"/>
+      <c r="F1029" s="8"/>
+      <c r="G1029" s="8"/>
+      <c r="H1029" s="8"/>
+      <c r="I1029" s="8"/>
+    </row>
     <row r="1030" spans="1:9">
-      <c r="A1030" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1030,LEN(B1030)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1030" s="10" t="s">
-        <v>996</v>
-      </c>
-      <c r="C1030" s="10"/>
-      <c r="D1030" s="10"/>
-      <c r="E1030" s="10"/>
-      <c r="F1030" s="10"/>
-      <c r="G1030" s="10"/>
-      <c r="H1030" s="10"/>
-      <c r="I1030" s="10"/>
+      <c r="B1030" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1030" s="8"/>
+      <c r="D1030" s="8"/>
+      <c r="E1030" s="8"/>
+      <c r="F1030" s="8"/>
+      <c r="G1030" s="8"/>
+      <c r="H1030" s="8"/>
+      <c r="I1030" s="8"/>
     </row>
     <row r="1031" spans="1:9">
       <c r="B1031" s="8" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="C1031" s="8"/>
       <c r="D1031" s="8"/>
@@ -17007,25 +16986,45 @@
       <c r="H1031" s="8"/>
       <c r="I1031" s="8"/>
     </row>
+    <row r="1032" spans="1:9">
+      <c r="B1032" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1032" s="8"/>
+      <c r="D1032" s="8"/>
+      <c r="E1032" s="8"/>
+      <c r="F1032" s="8"/>
+      <c r="G1032" s="8"/>
+      <c r="H1032" s="8"/>
+      <c r="I1032" s="8"/>
+    </row>
+    <row r="1033" spans="1:9">
+      <c r="B1033" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1033" s="8"/>
+      <c r="D1033" s="8"/>
+      <c r="E1033" s="8"/>
+      <c r="F1033" s="8"/>
+      <c r="G1033" s="8"/>
+      <c r="H1033" s="8"/>
+      <c r="I1033" s="8"/>
+    </row>
     <row r="1034" spans="1:9">
-      <c r="A1034" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1034,LEN(B1034)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1034" s="10" t="s">
-        <v>997</v>
-      </c>
-      <c r="C1034" s="10"/>
-      <c r="D1034" s="10"/>
-      <c r="E1034" s="10"/>
-      <c r="F1034" s="10"/>
-      <c r="G1034" s="10"/>
-      <c r="H1034" s="10"/>
-      <c r="I1034" s="10"/>
+      <c r="B1034" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1034" s="8"/>
+      <c r="D1034" s="8"/>
+      <c r="E1034" s="8"/>
+      <c r="F1034" s="8"/>
+      <c r="G1034" s="8"/>
+      <c r="H1034" s="8"/>
+      <c r="I1034" s="8"/>
     </row>
     <row r="1035" spans="1:9">
       <c r="B1035" s="8" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C1035" s="8"/>
       <c r="D1035" s="8"/>
@@ -17037,7 +17036,7 @@
     </row>
     <row r="1036" spans="1:9">
       <c r="B1036" s="8" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C1036" s="8"/>
       <c r="D1036" s="8"/>
@@ -17049,7 +17048,7 @@
     </row>
     <row r="1037" spans="1:9">
       <c r="B1037" s="8" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C1037" s="8"/>
       <c r="D1037" s="8"/>
@@ -17059,45 +17058,25 @@
       <c r="H1037" s="8"/>
       <c r="I1037" s="8"/>
     </row>
-    <row r="1038" spans="1:9">
-      <c r="B1038" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C1038" s="8"/>
-      <c r="D1038" s="8"/>
-      <c r="E1038" s="8"/>
-      <c r="F1038" s="8"/>
-      <c r="G1038" s="8"/>
-      <c r="H1038" s="8"/>
-      <c r="I1038" s="8"/>
-    </row>
-    <row r="1039" spans="1:9">
-      <c r="B1039" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C1039" s="8"/>
-      <c r="D1039" s="8"/>
-      <c r="E1039" s="8"/>
-      <c r="F1039" s="8"/>
-      <c r="G1039" s="8"/>
-      <c r="H1039" s="8"/>
-      <c r="I1039" s="8"/>
-    </row>
     <row r="1040" spans="1:9">
-      <c r="B1040" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C1040" s="8"/>
-      <c r="D1040" s="8"/>
-      <c r="E1040" s="8"/>
-      <c r="F1040" s="8"/>
-      <c r="G1040" s="8"/>
-      <c r="H1040" s="8"/>
-      <c r="I1040" s="8"/>
+      <c r="A1040" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1040,LEN(B1040)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1040" s="10" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1040" s="10"/>
+      <c r="D1040" s="10"/>
+      <c r="E1040" s="10"/>
+      <c r="F1040" s="10"/>
+      <c r="G1040" s="10"/>
+      <c r="H1040" s="10"/>
+      <c r="I1040" s="10"/>
     </row>
     <row r="1041" spans="2:9">
       <c r="B1041" s="8" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
       <c r="C1041" s="8"/>
       <c r="D1041" s="8"/>
@@ -17109,7 +17088,7 @@
     </row>
     <row r="1042" spans="2:9">
       <c r="B1042" s="8" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="C1042" s="8"/>
       <c r="D1042" s="8"/>
@@ -17121,7 +17100,7 @@
     </row>
     <row r="1043" spans="2:9">
       <c r="B1043" s="8" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
       <c r="C1043" s="8"/>
       <c r="D1043" s="8"/>
@@ -17133,7 +17112,7 @@
     </row>
     <row r="1044" spans="2:9">
       <c r="B1044" s="8" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
       <c r="C1044" s="8"/>
       <c r="D1044" s="8"/>
@@ -17145,7 +17124,7 @@
     </row>
     <row r="1045" spans="2:9">
       <c r="B1045" s="8" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
       <c r="C1045" s="8"/>
       <c r="D1045" s="8"/>
@@ -17157,7 +17136,7 @@
     </row>
     <row r="1046" spans="2:9">
       <c r="B1046" s="8" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
       <c r="C1046" s="8"/>
       <c r="D1046" s="8"/>
@@ -17169,7 +17148,7 @@
     </row>
     <row r="1047" spans="2:9">
       <c r="B1047" s="8" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
       <c r="C1047" s="8"/>
       <c r="D1047" s="8"/>
@@ -17181,7 +17160,7 @@
     </row>
     <row r="1048" spans="2:9">
       <c r="B1048" s="8" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
       <c r="C1048" s="8"/>
       <c r="D1048" s="8"/>
@@ -17193,7 +17172,7 @@
     </row>
     <row r="1049" spans="2:9">
       <c r="B1049" s="8" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
       <c r="C1049" s="8"/>
       <c r="D1049" s="8"/>
@@ -17205,7 +17184,7 @@
     </row>
     <row r="1050" spans="2:9">
       <c r="B1050" s="8" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
       <c r="C1050" s="8"/>
       <c r="D1050" s="8"/>
@@ -17217,7 +17196,7 @@
     </row>
     <row r="1051" spans="2:9">
       <c r="B1051" s="8" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
       <c r="C1051" s="8"/>
       <c r="D1051" s="8"/>
@@ -17229,7 +17208,7 @@
     </row>
     <row r="1052" spans="2:9">
       <c r="B1052" s="8" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
       <c r="C1052" s="8"/>
       <c r="D1052" s="8"/>
@@ -17241,7 +17220,7 @@
     </row>
     <row r="1053" spans="2:9">
       <c r="B1053" s="8" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
       <c r="C1053" s="8"/>
       <c r="D1053" s="8"/>
@@ -17253,7 +17232,7 @@
     </row>
     <row r="1054" spans="2:9">
       <c r="B1054" s="8" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="C1054" s="8"/>
       <c r="D1054" s="8"/>
@@ -17265,7 +17244,7 @@
     </row>
     <row r="1055" spans="2:9">
       <c r="B1055" s="8" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="C1055" s="8"/>
       <c r="D1055" s="8"/>
@@ -17277,7 +17256,7 @@
     </row>
     <row r="1056" spans="2:9">
       <c r="B1056" s="8" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
       <c r="C1056" s="8"/>
       <c r="D1056" s="8"/>
@@ -17287,25 +17266,45 @@
       <c r="H1056" s="8"/>
       <c r="I1056" s="8"/>
     </row>
+    <row r="1057" spans="1:9">
+      <c r="B1057" s="8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1057" s="8"/>
+      <c r="D1057" s="8"/>
+      <c r="E1057" s="8"/>
+      <c r="F1057" s="8"/>
+      <c r="G1057" s="8"/>
+      <c r="H1057" s="8"/>
+      <c r="I1057" s="8"/>
+    </row>
+    <row r="1058" spans="1:9">
+      <c r="B1058" s="8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1058" s="8"/>
+      <c r="D1058" s="8"/>
+      <c r="E1058" s="8"/>
+      <c r="F1058" s="8"/>
+      <c r="G1058" s="8"/>
+      <c r="H1058" s="8"/>
+      <c r="I1058" s="8"/>
+    </row>
     <row r="1059" spans="1:9">
-      <c r="A1059" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1059,LEN(B1059)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1059" s="10" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C1059" s="10"/>
-      <c r="D1059" s="10"/>
-      <c r="E1059" s="10"/>
-      <c r="F1059" s="10"/>
-      <c r="G1059" s="10"/>
-      <c r="H1059" s="10"/>
-      <c r="I1059" s="10"/>
+      <c r="B1059" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1059" s="8"/>
+      <c r="D1059" s="8"/>
+      <c r="E1059" s="8"/>
+      <c r="F1059" s="8"/>
+      <c r="G1059" s="8"/>
+      <c r="H1059" s="8"/>
+      <c r="I1059" s="8"/>
     </row>
     <row r="1060" spans="1:9">
       <c r="B1060" s="8" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="C1060" s="8"/>
       <c r="D1060" s="8"/>
@@ -17317,7 +17316,7 @@
     </row>
     <row r="1061" spans="1:9">
       <c r="B1061" s="8" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="C1061" s="8"/>
       <c r="D1061" s="8"/>
@@ -17329,7 +17328,7 @@
     </row>
     <row r="1062" spans="1:9">
       <c r="B1062" s="8" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="C1062" s="8"/>
       <c r="D1062" s="8"/>
@@ -17339,45 +17338,25 @@
       <c r="H1062" s="8"/>
       <c r="I1062" s="8"/>
     </row>
-    <row r="1063" spans="1:9">
-      <c r="B1063" s="8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C1063" s="8"/>
-      <c r="D1063" s="8"/>
-      <c r="E1063" s="8"/>
-      <c r="F1063" s="8"/>
-      <c r="G1063" s="8"/>
-      <c r="H1063" s="8"/>
-      <c r="I1063" s="8"/>
-    </row>
-    <row r="1064" spans="1:9">
-      <c r="B1064" s="8" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C1064" s="8"/>
-      <c r="D1064" s="8"/>
-      <c r="E1064" s="8"/>
-      <c r="F1064" s="8"/>
-      <c r="G1064" s="8"/>
-      <c r="H1064" s="8"/>
-      <c r="I1064" s="8"/>
-    </row>
     <row r="1065" spans="1:9">
-      <c r="B1065" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C1065" s="8"/>
-      <c r="D1065" s="8"/>
-      <c r="E1065" s="8"/>
-      <c r="F1065" s="8"/>
-      <c r="G1065" s="8"/>
-      <c r="H1065" s="8"/>
-      <c r="I1065" s="8"/>
+      <c r="A1065" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1065,LEN(B1065)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1065" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1065" s="10"/>
+      <c r="D1065" s="10"/>
+      <c r="E1065" s="10"/>
+      <c r="F1065" s="10"/>
+      <c r="G1065" s="10"/>
+      <c r="H1065" s="10"/>
+      <c r="I1065" s="10"/>
     </row>
     <row r="1066" spans="1:9">
       <c r="B1066" s="8" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C1066" s="8"/>
       <c r="D1066" s="8"/>
@@ -17389,7 +17368,7 @@
     </row>
     <row r="1067" spans="1:9">
       <c r="B1067" s="8" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="C1067" s="8"/>
       <c r="D1067" s="8"/>
@@ -17399,45 +17378,25 @@
       <c r="H1067" s="8"/>
       <c r="I1067" s="8"/>
     </row>
-    <row r="1068" spans="1:9">
-      <c r="B1068" s="8" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C1068" s="8"/>
-      <c r="D1068" s="8"/>
-      <c r="E1068" s="8"/>
-      <c r="F1068" s="8"/>
-      <c r="G1068" s="8"/>
-      <c r="H1068" s="8"/>
-      <c r="I1068" s="8"/>
-    </row>
-    <row r="1069" spans="1:9">
-      <c r="B1069" s="8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C1069" s="8"/>
-      <c r="D1069" s="8"/>
-      <c r="E1069" s="8"/>
-      <c r="F1069" s="8"/>
-      <c r="G1069" s="8"/>
-      <c r="H1069" s="8"/>
-      <c r="I1069" s="8"/>
-    </row>
     <row r="1070" spans="1:9">
-      <c r="B1070" s="8" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C1070" s="8"/>
-      <c r="D1070" s="8"/>
-      <c r="E1070" s="8"/>
-      <c r="F1070" s="8"/>
-      <c r="G1070" s="8"/>
-      <c r="H1070" s="8"/>
-      <c r="I1070" s="8"/>
+      <c r="A1070" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1070,LEN(B1070)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1070" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1070" s="10"/>
+      <c r="D1070" s="10"/>
+      <c r="E1070" s="10"/>
+      <c r="F1070" s="10"/>
+      <c r="G1070" s="10"/>
+      <c r="H1070" s="10"/>
+      <c r="I1070" s="10"/>
     </row>
     <row r="1071" spans="1:9">
       <c r="B1071" s="8" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C1071" s="8"/>
       <c r="D1071" s="8"/>
@@ -17449,7 +17408,7 @@
     </row>
     <row r="1072" spans="1:9">
       <c r="B1072" s="8" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="C1072" s="8"/>
       <c r="D1072" s="8"/>
@@ -17459,9 +17418,9 @@
       <c r="H1072" s="8"/>
       <c r="I1072" s="8"/>
     </row>
-    <row r="1073" spans="1:9">
+    <row r="1073" spans="2:9">
       <c r="B1073" s="8" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="C1073" s="8"/>
       <c r="D1073" s="8"/>
@@ -17471,9 +17430,9 @@
       <c r="H1073" s="8"/>
       <c r="I1073" s="8"/>
     </row>
-    <row r="1074" spans="1:9">
+    <row r="1074" spans="2:9">
       <c r="B1074" s="8" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="C1074" s="8"/>
       <c r="D1074" s="8"/>
@@ -17483,9 +17442,9 @@
       <c r="H1074" s="8"/>
       <c r="I1074" s="8"/>
     </row>
-    <row r="1075" spans="1:9">
+    <row r="1075" spans="2:9">
       <c r="B1075" s="8" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="C1075" s="8"/>
       <c r="D1075" s="8"/>
@@ -17495,9 +17454,9 @@
       <c r="H1075" s="8"/>
       <c r="I1075" s="8"/>
     </row>
-    <row r="1076" spans="1:9">
+    <row r="1076" spans="2:9">
       <c r="B1076" s="8" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C1076" s="8"/>
       <c r="D1076" s="8"/>
@@ -17507,9 +17466,9 @@
       <c r="H1076" s="8"/>
       <c r="I1076" s="8"/>
     </row>
-    <row r="1077" spans="1:9">
+    <row r="1077" spans="2:9">
       <c r="B1077" s="8" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C1077" s="8"/>
       <c r="D1077" s="8"/>
@@ -17519,9 +17478,9 @@
       <c r="H1077" s="8"/>
       <c r="I1077" s="8"/>
     </row>
-    <row r="1078" spans="1:9">
+    <row r="1078" spans="2:9">
       <c r="B1078" s="8" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="C1078" s="8"/>
       <c r="D1078" s="8"/>
@@ -17531,9 +17490,9 @@
       <c r="H1078" s="8"/>
       <c r="I1078" s="8"/>
     </row>
-    <row r="1079" spans="1:9">
+    <row r="1079" spans="2:9">
       <c r="B1079" s="8" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="C1079" s="8"/>
       <c r="D1079" s="8"/>
@@ -17543,9 +17502,9 @@
       <c r="H1079" s="8"/>
       <c r="I1079" s="8"/>
     </row>
-    <row r="1080" spans="1:9">
+    <row r="1080" spans="2:9">
       <c r="B1080" s="8" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C1080" s="8"/>
       <c r="D1080" s="8"/>
@@ -17555,9 +17514,9 @@
       <c r="H1080" s="8"/>
       <c r="I1080" s="8"/>
     </row>
-    <row r="1081" spans="1:9">
+    <row r="1081" spans="2:9">
       <c r="B1081" s="8" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C1081" s="8"/>
       <c r="D1081" s="8"/>
@@ -17567,25 +17526,45 @@
       <c r="H1081" s="8"/>
       <c r="I1081" s="8"/>
     </row>
-    <row r="1084" spans="1:9">
-      <c r="A1084" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1084,LEN(B1084)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1084" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C1084" s="10"/>
-      <c r="D1084" s="10"/>
-      <c r="E1084" s="10"/>
-      <c r="F1084" s="10"/>
-      <c r="G1084" s="10"/>
-      <c r="H1084" s="10"/>
-      <c r="I1084" s="10"/>
-    </row>
-    <row r="1085" spans="1:9">
+    <row r="1082" spans="2:9">
+      <c r="B1082" s="8" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1082" s="8"/>
+      <c r="D1082" s="8"/>
+      <c r="E1082" s="8"/>
+      <c r="F1082" s="8"/>
+      <c r="G1082" s="8"/>
+      <c r="H1082" s="8"/>
+      <c r="I1082" s="8"/>
+    </row>
+    <row r="1083" spans="2:9">
+      <c r="B1083" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1083" s="8"/>
+      <c r="D1083" s="8"/>
+      <c r="E1083" s="8"/>
+      <c r="F1083" s="8"/>
+      <c r="G1083" s="8"/>
+      <c r="H1083" s="8"/>
+      <c r="I1083" s="8"/>
+    </row>
+    <row r="1084" spans="2:9">
+      <c r="B1084" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1084" s="8"/>
+      <c r="D1084" s="8"/>
+      <c r="E1084" s="8"/>
+      <c r="F1084" s="8"/>
+      <c r="G1084" s="8"/>
+      <c r="H1084" s="8"/>
+      <c r="I1084" s="8"/>
+    </row>
+    <row r="1085" spans="2:9">
       <c r="B1085" s="8" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C1085" s="8"/>
       <c r="D1085" s="8"/>
@@ -17595,9 +17574,9 @@
       <c r="H1085" s="8"/>
       <c r="I1085" s="8"/>
     </row>
-    <row r="1086" spans="1:9">
+    <row r="1086" spans="2:9">
       <c r="B1086" s="8" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="C1086" s="8"/>
       <c r="D1086" s="8"/>
@@ -17607,25 +17586,45 @@
       <c r="H1086" s="8"/>
       <c r="I1086" s="8"/>
     </row>
+    <row r="1087" spans="2:9">
+      <c r="B1087" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1087" s="8"/>
+      <c r="D1087" s="8"/>
+      <c r="E1087" s="8"/>
+      <c r="F1087" s="8"/>
+      <c r="G1087" s="8"/>
+      <c r="H1087" s="8"/>
+      <c r="I1087" s="8"/>
+    </row>
+    <row r="1088" spans="2:9">
+      <c r="B1088" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1088" s="8"/>
+      <c r="D1088" s="8"/>
+      <c r="E1088" s="8"/>
+      <c r="F1088" s="8"/>
+      <c r="G1088" s="8"/>
+      <c r="H1088" s="8"/>
+      <c r="I1088" s="8"/>
+    </row>
     <row r="1089" spans="1:9">
-      <c r="A1089" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1089,LEN(B1089)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1089" s="10" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C1089" s="10"/>
-      <c r="D1089" s="10"/>
-      <c r="E1089" s="10"/>
-      <c r="F1089" s="10"/>
-      <c r="G1089" s="10"/>
-      <c r="H1089" s="10"/>
-      <c r="I1089" s="10"/>
+      <c r="B1089" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1089" s="8"/>
+      <c r="D1089" s="8"/>
+      <c r="E1089" s="8"/>
+      <c r="F1089" s="8"/>
+      <c r="G1089" s="8"/>
+      <c r="H1089" s="8"/>
+      <c r="I1089" s="8"/>
     </row>
     <row r="1090" spans="1:9">
       <c r="B1090" s="8" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C1090" s="8"/>
       <c r="D1090" s="8"/>
@@ -17637,7 +17636,7 @@
     </row>
     <row r="1091" spans="1:9">
       <c r="B1091" s="8" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="C1091" s="8"/>
       <c r="D1091" s="8"/>
@@ -17649,7 +17648,7 @@
     </row>
     <row r="1092" spans="1:9">
       <c r="B1092" s="8" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="C1092" s="8"/>
       <c r="D1092" s="8"/>
@@ -17661,7 +17660,7 @@
     </row>
     <row r="1093" spans="1:9">
       <c r="B1093" s="8" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="C1093" s="8"/>
       <c r="D1093" s="8"/>
@@ -17673,7 +17672,7 @@
     </row>
     <row r="1094" spans="1:9">
       <c r="B1094" s="8" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C1094" s="8"/>
       <c r="D1094" s="8"/>
@@ -17685,7 +17684,7 @@
     </row>
     <row r="1095" spans="1:9">
       <c r="B1095" s="8" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C1095" s="8"/>
       <c r="D1095" s="8"/>
@@ -17697,7 +17696,7 @@
     </row>
     <row r="1096" spans="1:9">
       <c r="B1096" s="8" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="C1096" s="8"/>
       <c r="D1096" s="8"/>
@@ -17709,7 +17708,7 @@
     </row>
     <row r="1097" spans="1:9">
       <c r="B1097" s="8" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C1097" s="8"/>
       <c r="D1097" s="8"/>
@@ -17721,7 +17720,7 @@
     </row>
     <row r="1098" spans="1:9">
       <c r="B1098" s="8" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C1098" s="8"/>
       <c r="D1098" s="8"/>
@@ -17731,45 +17730,25 @@
       <c r="H1098" s="8"/>
       <c r="I1098" s="8"/>
     </row>
-    <row r="1099" spans="1:9">
-      <c r="B1099" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C1099" s="8"/>
-      <c r="D1099" s="8"/>
-      <c r="E1099" s="8"/>
-      <c r="F1099" s="8"/>
-      <c r="G1099" s="8"/>
-      <c r="H1099" s="8"/>
-      <c r="I1099" s="8"/>
-    </row>
-    <row r="1100" spans="1:9">
-      <c r="B1100" s="8" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C1100" s="8"/>
-      <c r="D1100" s="8"/>
-      <c r="E1100" s="8"/>
-      <c r="F1100" s="8"/>
-      <c r="G1100" s="8"/>
-      <c r="H1100" s="8"/>
-      <c r="I1100" s="8"/>
-    </row>
     <row r="1101" spans="1:9">
-      <c r="B1101" s="8" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C1101" s="8"/>
-      <c r="D1101" s="8"/>
-      <c r="E1101" s="8"/>
-      <c r="F1101" s="8"/>
-      <c r="G1101" s="8"/>
-      <c r="H1101" s="8"/>
-      <c r="I1101" s="8"/>
+      <c r="A1101" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1101,LEN(B1101)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1101" s="10" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1101" s="10"/>
+      <c r="D1101" s="10"/>
+      <c r="E1101" s="10"/>
+      <c r="F1101" s="10"/>
+      <c r="G1101" s="10"/>
+      <c r="H1101" s="10"/>
+      <c r="I1101" s="10"/>
     </row>
     <row r="1102" spans="1:9">
       <c r="B1102" s="8" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="C1102" s="8"/>
       <c r="D1102" s="8"/>
@@ -17781,7 +17760,7 @@
     </row>
     <row r="1103" spans="1:9">
       <c r="B1103" s="8" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="C1103" s="8"/>
       <c r="D1103" s="8"/>
@@ -17793,7 +17772,7 @@
     </row>
     <row r="1104" spans="1:9">
       <c r="B1104" s="8" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="C1104" s="8"/>
       <c r="D1104" s="8"/>
@@ -17803,9 +17782,9 @@
       <c r="H1104" s="8"/>
       <c r="I1104" s="8"/>
     </row>
-    <row r="1105" spans="1:9">
+    <row r="1105" spans="2:9">
       <c r="B1105" s="8" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="C1105" s="8"/>
       <c r="D1105" s="8"/>
@@ -17815,9 +17794,9 @@
       <c r="H1105" s="8"/>
       <c r="I1105" s="8"/>
     </row>
-    <row r="1106" spans="1:9">
+    <row r="1106" spans="2:9">
       <c r="B1106" s="8" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="C1106" s="8"/>
       <c r="D1106" s="8"/>
@@ -17827,9 +17806,9 @@
       <c r="H1106" s="8"/>
       <c r="I1106" s="8"/>
     </row>
-    <row r="1107" spans="1:9">
+    <row r="1107" spans="2:9">
       <c r="B1107" s="8" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="C1107" s="8"/>
       <c r="D1107" s="8"/>
@@ -17839,9 +17818,9 @@
       <c r="H1107" s="8"/>
       <c r="I1107" s="8"/>
     </row>
-    <row r="1108" spans="1:9">
+    <row r="1108" spans="2:9">
       <c r="B1108" s="8" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="C1108" s="8"/>
       <c r="D1108" s="8"/>
@@ -17851,9 +17830,9 @@
       <c r="H1108" s="8"/>
       <c r="I1108" s="8"/>
     </row>
-    <row r="1109" spans="1:9">
+    <row r="1109" spans="2:9">
       <c r="B1109" s="8" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="C1109" s="8"/>
       <c r="D1109" s="8"/>
@@ -17863,9 +17842,9 @@
       <c r="H1109" s="8"/>
       <c r="I1109" s="8"/>
     </row>
-    <row r="1110" spans="1:9">
+    <row r="1110" spans="2:9">
       <c r="B1110" s="8" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="C1110" s="8"/>
       <c r="D1110" s="8"/>
@@ -17875,9 +17854,9 @@
       <c r="H1110" s="8"/>
       <c r="I1110" s="8"/>
     </row>
-    <row r="1111" spans="1:9">
+    <row r="1111" spans="2:9">
       <c r="B1111" s="8" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="C1111" s="8"/>
       <c r="D1111" s="8"/>
@@ -17887,9 +17866,9 @@
       <c r="H1111" s="8"/>
       <c r="I1111" s="8"/>
     </row>
-    <row r="1112" spans="1:9">
+    <row r="1112" spans="2:9">
       <c r="B1112" s="8" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C1112" s="8"/>
       <c r="D1112" s="8"/>
@@ -17899,9 +17878,9 @@
       <c r="H1112" s="8"/>
       <c r="I1112" s="8"/>
     </row>
-    <row r="1113" spans="1:9">
+    <row r="1113" spans="2:9">
       <c r="B1113" s="8" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C1113" s="8"/>
       <c r="D1113" s="8"/>
@@ -17911,9 +17890,9 @@
       <c r="H1113" s="8"/>
       <c r="I1113" s="8"/>
     </row>
-    <row r="1114" spans="1:9">
+    <row r="1114" spans="2:9">
       <c r="B1114" s="8" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="C1114" s="8"/>
       <c r="D1114" s="8"/>
@@ -17923,9 +17902,9 @@
       <c r="H1114" s="8"/>
       <c r="I1114" s="8"/>
     </row>
-    <row r="1115" spans="1:9">
+    <row r="1115" spans="2:9">
       <c r="B1115" s="8" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="C1115" s="8"/>
       <c r="D1115" s="8"/>
@@ -17935,9 +17914,9 @@
       <c r="H1115" s="8"/>
       <c r="I1115" s="8"/>
     </row>
-    <row r="1116" spans="1:9">
+    <row r="1116" spans="2:9">
       <c r="B1116" s="8" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="C1116" s="8"/>
       <c r="D1116" s="8"/>
@@ -17947,9 +17926,9 @@
       <c r="H1116" s="8"/>
       <c r="I1116" s="8"/>
     </row>
-    <row r="1117" spans="1:9">
+    <row r="1117" spans="2:9">
       <c r="B1117" s="8" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="C1117" s="8"/>
       <c r="D1117" s="8"/>
@@ -17959,25 +17938,45 @@
       <c r="H1117" s="8"/>
       <c r="I1117" s="8"/>
     </row>
-    <row r="1120" spans="1:9">
-      <c r="A1120" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1120,LEN(B1120)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1120" s="10" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C1120" s="10"/>
-      <c r="D1120" s="10"/>
-      <c r="E1120" s="10"/>
-      <c r="F1120" s="10"/>
-      <c r="G1120" s="10"/>
-      <c r="H1120" s="10"/>
-      <c r="I1120" s="10"/>
-    </row>
-    <row r="1121" spans="2:9">
+    <row r="1118" spans="2:9">
+      <c r="B1118" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1118" s="8"/>
+      <c r="D1118" s="8"/>
+      <c r="E1118" s="8"/>
+      <c r="F1118" s="8"/>
+      <c r="G1118" s="8"/>
+      <c r="H1118" s="8"/>
+      <c r="I1118" s="8"/>
+    </row>
+    <row r="1119" spans="2:9">
+      <c r="B1119" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1119" s="8"/>
+      <c r="D1119" s="8"/>
+      <c r="E1119" s="8"/>
+      <c r="F1119" s="8"/>
+      <c r="G1119" s="8"/>
+      <c r="H1119" s="8"/>
+      <c r="I1119" s="8"/>
+    </row>
+    <row r="1120" spans="2:9">
+      <c r="B1120" s="8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1120" s="8"/>
+      <c r="D1120" s="8"/>
+      <c r="E1120" s="8"/>
+      <c r="F1120" s="8"/>
+      <c r="G1120" s="8"/>
+      <c r="H1120" s="8"/>
+      <c r="I1120" s="8"/>
+    </row>
+    <row r="1121" spans="1:9">
       <c r="B1121" s="8" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="C1121" s="8"/>
       <c r="D1121" s="8"/>
@@ -17987,9 +17986,9 @@
       <c r="H1121" s="8"/>
       <c r="I1121" s="8"/>
     </row>
-    <row r="1122" spans="2:9">
+    <row r="1122" spans="1:9">
       <c r="B1122" s="8" t="s">
-        <v>1054</v>
+        <v>1032</v>
       </c>
       <c r="C1122" s="8"/>
       <c r="D1122" s="8"/>
@@ -17999,9 +17998,9 @@
       <c r="H1122" s="8"/>
       <c r="I1122" s="8"/>
     </row>
-    <row r="1123" spans="2:9">
+    <row r="1123" spans="1:9">
       <c r="B1123" s="8" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="C1123" s="8"/>
       <c r="D1123" s="8"/>
@@ -18011,9 +18010,9 @@
       <c r="H1123" s="8"/>
       <c r="I1123" s="8"/>
     </row>
-    <row r="1124" spans="2:9">
+    <row r="1124" spans="1:9">
       <c r="B1124" s="8" t="s">
-        <v>1055</v>
+        <v>1034</v>
       </c>
       <c r="C1124" s="8"/>
       <c r="D1124" s="8"/>
@@ -18023,9 +18022,9 @@
       <c r="H1124" s="8"/>
       <c r="I1124" s="8"/>
     </row>
-    <row r="1125" spans="2:9">
+    <row r="1125" spans="1:9">
       <c r="B1125" s="8" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="C1125" s="8"/>
       <c r="D1125" s="8"/>
@@ -18035,9 +18034,9 @@
       <c r="H1125" s="8"/>
       <c r="I1125" s="8"/>
     </row>
-    <row r="1126" spans="2:9">
+    <row r="1126" spans="1:9">
       <c r="B1126" s="8" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="C1126" s="8"/>
       <c r="D1126" s="8"/>
@@ -18047,9 +18046,9 @@
       <c r="H1126" s="8"/>
       <c r="I1126" s="8"/>
     </row>
-    <row r="1127" spans="2:9">
+    <row r="1127" spans="1:9">
       <c r="B1127" s="8" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="C1127" s="8"/>
       <c r="D1127" s="8"/>
@@ -18059,9 +18058,9 @@
       <c r="H1127" s="8"/>
       <c r="I1127" s="8"/>
     </row>
-    <row r="1128" spans="2:9">
+    <row r="1128" spans="1:9">
       <c r="B1128" s="8" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="C1128" s="8"/>
       <c r="D1128" s="8"/>
@@ -18071,9 +18070,9 @@
       <c r="H1128" s="8"/>
       <c r="I1128" s="8"/>
     </row>
-    <row r="1129" spans="2:9">
+    <row r="1129" spans="1:9">
       <c r="B1129" s="8" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="C1129" s="8"/>
       <c r="D1129" s="8"/>
@@ -18083,45 +18082,25 @@
       <c r="H1129" s="8"/>
       <c r="I1129" s="8"/>
     </row>
-    <row r="1130" spans="2:9">
-      <c r="B1130" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C1130" s="8"/>
-      <c r="D1130" s="8"/>
-      <c r="E1130" s="8"/>
-      <c r="F1130" s="8"/>
-      <c r="G1130" s="8"/>
-      <c r="H1130" s="8"/>
-      <c r="I1130" s="8"/>
-    </row>
-    <row r="1131" spans="2:9">
-      <c r="B1131" s="8" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C1131" s="8"/>
-      <c r="D1131" s="8"/>
-      <c r="E1131" s="8"/>
-      <c r="F1131" s="8"/>
-      <c r="G1131" s="8"/>
-      <c r="H1131" s="8"/>
-      <c r="I1131" s="8"/>
-    </row>
-    <row r="1132" spans="2:9">
-      <c r="B1132" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C1132" s="8"/>
-      <c r="D1132" s="8"/>
-      <c r="E1132" s="8"/>
-      <c r="F1132" s="8"/>
-      <c r="G1132" s="8"/>
-      <c r="H1132" s="8"/>
-      <c r="I1132" s="8"/>
-    </row>
-    <row r="1133" spans="2:9">
+    <row r="1132" spans="1:9">
+      <c r="A1132" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1132,LEN(B1132)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1132" s="10" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1132" s="10"/>
+      <c r="D1132" s="10"/>
+      <c r="E1132" s="10"/>
+      <c r="F1132" s="10"/>
+      <c r="G1132" s="10"/>
+      <c r="H1132" s="10"/>
+      <c r="I1132" s="10"/>
+    </row>
+    <row r="1133" spans="1:9">
       <c r="B1133" s="8" t="s">
-        <v>1037</v>
+        <v>1046</v>
       </c>
       <c r="C1133" s="8"/>
       <c r="D1133" s="8"/>
@@ -18131,9 +18110,9 @@
       <c r="H1133" s="8"/>
       <c r="I1133" s="8"/>
     </row>
-    <row r="1134" spans="2:9">
+    <row r="1134" spans="1:9">
       <c r="B1134" s="8" t="s">
-        <v>1038</v>
+        <v>1047</v>
       </c>
       <c r="C1134" s="8"/>
       <c r="D1134" s="8"/>
@@ -18143,9 +18122,9 @@
       <c r="H1134" s="8"/>
       <c r="I1134" s="8"/>
     </row>
-    <row r="1135" spans="2:9">
+    <row r="1135" spans="1:9">
       <c r="B1135" s="8" t="s">
-        <v>1039</v>
+        <v>1048</v>
       </c>
       <c r="C1135" s="8"/>
       <c r="D1135" s="8"/>
@@ -18155,9 +18134,9 @@
       <c r="H1135" s="8"/>
       <c r="I1135" s="8"/>
     </row>
-    <row r="1136" spans="2:9">
+    <row r="1136" spans="1:9">
       <c r="B1136" s="8" t="s">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="C1136" s="8"/>
       <c r="D1136" s="8"/>
@@ -18169,7 +18148,7 @@
     </row>
     <row r="1137" spans="1:9">
       <c r="B1137" s="8" t="s">
-        <v>1041</v>
+        <v>1050</v>
       </c>
       <c r="C1137" s="8"/>
       <c r="D1137" s="8"/>
@@ -18181,7 +18160,7 @@
     </row>
     <row r="1138" spans="1:9">
       <c r="B1138" s="8" t="s">
-        <v>1042</v>
+        <v>1051</v>
       </c>
       <c r="C1138" s="8"/>
       <c r="D1138" s="8"/>
@@ -18191,41 +18170,21 @@
       <c r="H1138" s="8"/>
       <c r="I1138" s="8"/>
     </row>
-    <row r="1139" spans="1:9">
-      <c r="B1139" s="8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C1139" s="8"/>
-      <c r="D1139" s="8"/>
-      <c r="E1139" s="8"/>
-      <c r="F1139" s="8"/>
-      <c r="G1139" s="8"/>
-      <c r="H1139" s="8"/>
-      <c r="I1139" s="8"/>
-    </row>
-    <row r="1140" spans="1:9">
-      <c r="B1140" s="8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C1140" s="8"/>
-      <c r="D1140" s="8"/>
-      <c r="E1140" s="8"/>
-      <c r="F1140" s="8"/>
-      <c r="G1140" s="8"/>
-      <c r="H1140" s="8"/>
-      <c r="I1140" s="8"/>
-    </row>
     <row r="1141" spans="1:9">
-      <c r="B1141" s="8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C1141" s="8"/>
-      <c r="D1141" s="8"/>
-      <c r="E1141" s="8"/>
-      <c r="F1141" s="8"/>
-      <c r="G1141" s="8"/>
-      <c r="H1141" s="8"/>
-      <c r="I1141" s="8"/>
+      <c r="A1141" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1141,LEN(B1141)-8),B:B,0))),"Back")</f>
+        <v>0</v>
+      </c>
+      <c r="B1141" s="10" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1141" s="10"/>
+      <c r="D1141" s="10"/>
+      <c r="E1141" s="10"/>
+      <c r="F1141" s="10"/>
+      <c r="G1141" s="10"/>
+      <c r="H1141" s="10"/>
+      <c r="I1141" s="10"/>
     </row>
     <row r="1142" spans="1:9">
       <c r="B1142" s="8" t="s">
@@ -18253,7 +18212,7 @@
     </row>
     <row r="1144" spans="1:9">
       <c r="B1144" s="8" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="C1144" s="8"/>
       <c r="D1144" s="8"/>
@@ -18265,7 +18224,7 @@
     </row>
     <row r="1145" spans="1:9">
       <c r="B1145" s="8" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="C1145" s="8"/>
       <c r="D1145" s="8"/>
@@ -18277,7 +18236,7 @@
     </row>
     <row r="1146" spans="1:9">
       <c r="B1146" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C1146" s="8"/>
       <c r="D1146" s="8"/>
@@ -18289,7 +18248,7 @@
     </row>
     <row r="1147" spans="1:9">
       <c r="B1147" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C1147" s="8"/>
       <c r="D1147" s="8"/>
@@ -18301,7 +18260,7 @@
     </row>
     <row r="1148" spans="1:9">
       <c r="B1148" s="8" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C1148" s="8"/>
       <c r="D1148" s="8"/>
@@ -18317,7 +18276,7 @@
         <v>0</v>
       </c>
       <c r="B1151" s="10" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C1151" s="10"/>
       <c r="D1151" s="10"/>
@@ -18329,7 +18288,7 @@
     </row>
     <row r="1152" spans="1:9">
       <c r="B1152" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C1152" s="8"/>
       <c r="D1152" s="8"/>
@@ -18341,7 +18300,7 @@
     </row>
     <row r="1153" spans="1:9">
       <c r="B1153" s="8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C1153" s="8"/>
       <c r="D1153" s="8"/>
@@ -18353,7 +18312,7 @@
     </row>
     <row r="1154" spans="1:9">
       <c r="B1154" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C1154" s="8"/>
       <c r="D1154" s="8"/>
@@ -18365,7 +18324,7 @@
     </row>
     <row r="1155" spans="1:9">
       <c r="B1155" s="8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C1155" s="8"/>
       <c r="D1155" s="8"/>
@@ -18375,219 +18334,31 @@
       <c r="H1155" s="8"/>
       <c r="I1155" s="8"/>
     </row>
-    <row r="1156" spans="1:9">
-      <c r="B1156" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C1156" s="8"/>
-      <c r="D1156" s="8"/>
-      <c r="E1156" s="8"/>
-      <c r="F1156" s="8"/>
-      <c r="G1156" s="8"/>
-      <c r="H1156" s="8"/>
-      <c r="I1156" s="8"/>
-    </row>
-    <row r="1157" spans="1:9">
-      <c r="B1157" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C1157" s="8"/>
-      <c r="D1157" s="8"/>
-      <c r="E1157" s="8"/>
-      <c r="F1157" s="8"/>
-      <c r="G1157" s="8"/>
-      <c r="H1157" s="8"/>
-      <c r="I1157" s="8"/>
-    </row>
-    <row r="1160" spans="1:9">
-      <c r="A1160" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1160,LEN(B1160)-8),B:B,0))),"Back")</f>
+    <row r="1158" spans="1:9">
+      <c r="A1158" s="9">
+        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1158,LEN(B1158)-8),B:B,0))),"Back")</f>
         <v>0</v>
       </c>
-      <c r="B1160" s="10" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C1160" s="10"/>
-      <c r="D1160" s="10"/>
-      <c r="E1160" s="10"/>
-      <c r="F1160" s="10"/>
-      <c r="G1160" s="10"/>
-      <c r="H1160" s="10"/>
-      <c r="I1160" s="10"/>
-    </row>
-    <row r="1161" spans="1:9">
-      <c r="B1161" s="8" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C1161" s="8"/>
-      <c r="D1161" s="8"/>
-      <c r="E1161" s="8"/>
-      <c r="F1161" s="8"/>
-      <c r="G1161" s="8"/>
-      <c r="H1161" s="8"/>
-      <c r="I1161" s="8"/>
-    </row>
-    <row r="1162" spans="1:9">
-      <c r="B1162" s="8" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C1162" s="8"/>
-      <c r="D1162" s="8"/>
-      <c r="E1162" s="8"/>
-      <c r="F1162" s="8"/>
-      <c r="G1162" s="8"/>
-      <c r="H1162" s="8"/>
-      <c r="I1162" s="8"/>
-    </row>
-    <row r="1163" spans="1:9">
-      <c r="B1163" s="8" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C1163" s="8"/>
-      <c r="D1163" s="8"/>
-      <c r="E1163" s="8"/>
-      <c r="F1163" s="8"/>
-      <c r="G1163" s="8"/>
-      <c r="H1163" s="8"/>
-      <c r="I1163" s="8"/>
-    </row>
-    <row r="1164" spans="1:9">
-      <c r="B1164" s="8" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C1164" s="8"/>
-      <c r="D1164" s="8"/>
-      <c r="E1164" s="8"/>
-      <c r="F1164" s="8"/>
-      <c r="G1164" s="8"/>
-      <c r="H1164" s="8"/>
-      <c r="I1164" s="8"/>
-    </row>
-    <row r="1165" spans="1:9">
-      <c r="B1165" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C1165" s="8"/>
-      <c r="D1165" s="8"/>
-      <c r="E1165" s="8"/>
-      <c r="F1165" s="8"/>
-      <c r="G1165" s="8"/>
-      <c r="H1165" s="8"/>
-      <c r="I1165" s="8"/>
-    </row>
-    <row r="1166" spans="1:9">
-      <c r="B1166" s="8" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C1166" s="8"/>
-      <c r="D1166" s="8"/>
-      <c r="E1166" s="8"/>
-      <c r="F1166" s="8"/>
-      <c r="G1166" s="8"/>
-      <c r="H1166" s="8"/>
-      <c r="I1166" s="8"/>
-    </row>
-    <row r="1167" spans="1:9">
-      <c r="B1167" s="8" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C1167" s="8"/>
-      <c r="D1167" s="8"/>
-      <c r="E1167" s="8"/>
-      <c r="F1167" s="8"/>
-      <c r="G1167" s="8"/>
-      <c r="H1167" s="8"/>
-      <c r="I1167" s="8"/>
-    </row>
-    <row r="1170" spans="1:9">
-      <c r="A1170" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1170,LEN(B1170)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1170" s="10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C1170" s="10"/>
-      <c r="D1170" s="10"/>
-      <c r="E1170" s="10"/>
-      <c r="F1170" s="10"/>
-      <c r="G1170" s="10"/>
-      <c r="H1170" s="10"/>
-      <c r="I1170" s="10"/>
-    </row>
-    <row r="1171" spans="1:9">
-      <c r="B1171" s="8" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C1171" s="8"/>
-      <c r="D1171" s="8"/>
-      <c r="E1171" s="8"/>
-      <c r="F1171" s="8"/>
-      <c r="G1171" s="8"/>
-      <c r="H1171" s="8"/>
-      <c r="I1171" s="8"/>
-    </row>
-    <row r="1172" spans="1:9">
-      <c r="B1172" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C1172" s="8"/>
-      <c r="D1172" s="8"/>
-      <c r="E1172" s="8"/>
-      <c r="F1172" s="8"/>
-      <c r="G1172" s="8"/>
-      <c r="H1172" s="8"/>
-      <c r="I1172" s="8"/>
-    </row>
-    <row r="1173" spans="1:9">
-      <c r="B1173" s="8" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C1173" s="8"/>
-      <c r="D1173" s="8"/>
-      <c r="E1173" s="8"/>
-      <c r="F1173" s="8"/>
-      <c r="G1173" s="8"/>
-      <c r="H1173" s="8"/>
-      <c r="I1173" s="8"/>
-    </row>
-    <row r="1174" spans="1:9">
-      <c r="B1174" s="8" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C1174" s="8"/>
-      <c r="D1174" s="8"/>
-      <c r="E1174" s="8"/>
-      <c r="F1174" s="8"/>
-      <c r="G1174" s="8"/>
-      <c r="H1174" s="8"/>
-      <c r="I1174" s="8"/>
-    </row>
-    <row r="1177" spans="1:9">
-      <c r="A1177" s="9">
-        <f>HYPERLINK("#"&amp;CELL("address",INDEX(B:B,MATCH(RIGHT(B1177,LEN(B1177)-8),B:B,0))),"Back")</f>
-        <v>0</v>
-      </c>
-      <c r="B1177" s="10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C1177" s="10"/>
-      <c r="D1177" s="10"/>
-      <c r="E1177" s="10"/>
-      <c r="F1177" s="10"/>
-      <c r="G1177" s="10"/>
-      <c r="H1177" s="10"/>
-      <c r="I1177" s="10"/>
+      <c r="B1158" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1158" s="10"/>
+      <c r="D1158" s="10"/>
+      <c r="E1158" s="10"/>
+      <c r="F1158" s="10"/>
+      <c r="G1158" s="10"/>
+      <c r="H1158" s="10"/>
+      <c r="I1158" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B10:I1114">
+  <autoFilter ref="B10:I1099">
     <filterColumn colId="1">
       <filters>
         <filter val="Fail"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="900">
+  <mergeCells count="885">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
@@ -18908,11 +18679,9 @@
     <mergeCell ref="B545:I545"/>
     <mergeCell ref="B548:I548"/>
     <mergeCell ref="B549:I549"/>
-    <mergeCell ref="B550:I550"/>
-    <mergeCell ref="B551:I551"/>
     <mergeCell ref="B552:I552"/>
     <mergeCell ref="B553:I553"/>
-    <mergeCell ref="B554:I554"/>
+    <mergeCell ref="B556:I556"/>
     <mergeCell ref="B557:I557"/>
     <mergeCell ref="B558:I558"/>
     <mergeCell ref="B559:I559"/>
@@ -18921,10 +18690,16 @@
     <mergeCell ref="B562:I562"/>
     <mergeCell ref="B563:I563"/>
     <mergeCell ref="B564:I564"/>
+    <mergeCell ref="B565:I565"/>
+    <mergeCell ref="B566:I566"/>
     <mergeCell ref="B567:I567"/>
     <mergeCell ref="B568:I568"/>
+    <mergeCell ref="B569:I569"/>
+    <mergeCell ref="B570:I570"/>
     <mergeCell ref="B571:I571"/>
     <mergeCell ref="B572:I572"/>
+    <mergeCell ref="B573:I573"/>
+    <mergeCell ref="B574:I574"/>
     <mergeCell ref="B575:I575"/>
     <mergeCell ref="B576:I576"/>
     <mergeCell ref="B577:I577"/>
@@ -18932,8 +18707,6 @@
     <mergeCell ref="B579:I579"/>
     <mergeCell ref="B580:I580"/>
     <mergeCell ref="B581:I581"/>
-    <mergeCell ref="B582:I582"/>
-    <mergeCell ref="B583:I583"/>
     <mergeCell ref="B584:I584"/>
     <mergeCell ref="B585:I585"/>
     <mergeCell ref="B586:I586"/>
@@ -18947,10 +18720,10 @@
     <mergeCell ref="B594:I594"/>
     <mergeCell ref="B595:I595"/>
     <mergeCell ref="B596:I596"/>
-    <mergeCell ref="B597:I597"/>
-    <mergeCell ref="B598:I598"/>
     <mergeCell ref="B599:I599"/>
     <mergeCell ref="B600:I600"/>
+    <mergeCell ref="B601:I601"/>
+    <mergeCell ref="B602:I602"/>
     <mergeCell ref="B603:I603"/>
     <mergeCell ref="B604:I604"/>
     <mergeCell ref="B605:I605"/>
@@ -18964,6 +18737,8 @@
     <mergeCell ref="B613:I613"/>
     <mergeCell ref="B614:I614"/>
     <mergeCell ref="B615:I615"/>
+    <mergeCell ref="B616:I616"/>
+    <mergeCell ref="B617:I617"/>
     <mergeCell ref="B618:I618"/>
     <mergeCell ref="B619:I619"/>
     <mergeCell ref="B620:I620"/>
@@ -19083,8 +18858,6 @@
     <mergeCell ref="B734:I734"/>
     <mergeCell ref="B735:I735"/>
     <mergeCell ref="B736:I736"/>
-    <mergeCell ref="B737:I737"/>
-    <mergeCell ref="B738:I738"/>
     <mergeCell ref="B739:I739"/>
     <mergeCell ref="B740:I740"/>
     <mergeCell ref="B741:I741"/>
@@ -19102,6 +18875,8 @@
     <mergeCell ref="B753:I753"/>
     <mergeCell ref="B754:I754"/>
     <mergeCell ref="B755:I755"/>
+    <mergeCell ref="B756:I756"/>
+    <mergeCell ref="B757:I757"/>
     <mergeCell ref="B758:I758"/>
     <mergeCell ref="B759:I759"/>
     <mergeCell ref="B760:I760"/>
@@ -19276,8 +19051,6 @@
     <mergeCell ref="B929:I929"/>
     <mergeCell ref="B930:I930"/>
     <mergeCell ref="B931:I931"/>
-    <mergeCell ref="B932:I932"/>
-    <mergeCell ref="B933:I933"/>
     <mergeCell ref="B934:I934"/>
     <mergeCell ref="B935:I935"/>
     <mergeCell ref="B936:I936"/>
@@ -19295,9 +19068,9 @@
     <mergeCell ref="B948:I948"/>
     <mergeCell ref="B949:I949"/>
     <mergeCell ref="B950:I950"/>
+    <mergeCell ref="B951:I951"/>
+    <mergeCell ref="B952:I952"/>
     <mergeCell ref="B953:I953"/>
-    <mergeCell ref="B954:I954"/>
-    <mergeCell ref="B955:I955"/>
     <mergeCell ref="B956:I956"/>
     <mergeCell ref="B957:I957"/>
     <mergeCell ref="B958:I958"/>
@@ -19305,8 +19078,6 @@
     <mergeCell ref="B960:I960"/>
     <mergeCell ref="B961:I961"/>
     <mergeCell ref="B962:I962"/>
-    <mergeCell ref="B963:I963"/>
-    <mergeCell ref="B964:I964"/>
     <mergeCell ref="B965:I965"/>
     <mergeCell ref="B966:I966"/>
     <mergeCell ref="B967:I967"/>
@@ -19315,57 +19086,59 @@
     <mergeCell ref="B970:I970"/>
     <mergeCell ref="B971:I971"/>
     <mergeCell ref="B972:I972"/>
-    <mergeCell ref="B975:I975"/>
+    <mergeCell ref="B973:I973"/>
     <mergeCell ref="B976:I976"/>
     <mergeCell ref="B977:I977"/>
     <mergeCell ref="B978:I978"/>
     <mergeCell ref="B979:I979"/>
     <mergeCell ref="B980:I980"/>
     <mergeCell ref="B981:I981"/>
+    <mergeCell ref="B982:I982"/>
+    <mergeCell ref="B983:I983"/>
     <mergeCell ref="B984:I984"/>
-    <mergeCell ref="B985:I985"/>
-    <mergeCell ref="B986:I986"/>
     <mergeCell ref="B987:I987"/>
     <mergeCell ref="B988:I988"/>
     <mergeCell ref="B989:I989"/>
     <mergeCell ref="B990:I990"/>
     <mergeCell ref="B991:I991"/>
     <mergeCell ref="B992:I992"/>
+    <mergeCell ref="B993:I993"/>
+    <mergeCell ref="B994:I994"/>
     <mergeCell ref="B995:I995"/>
     <mergeCell ref="B996:I996"/>
     <mergeCell ref="B997:I997"/>
     <mergeCell ref="B998:I998"/>
     <mergeCell ref="B999:I999"/>
     <mergeCell ref="B1000:I1000"/>
-    <mergeCell ref="B1001:I1001"/>
-    <mergeCell ref="B1002:I1002"/>
     <mergeCell ref="B1003:I1003"/>
-    <mergeCell ref="B1006:I1006"/>
+    <mergeCell ref="B1004:I1004"/>
     <mergeCell ref="B1007:I1007"/>
     <mergeCell ref="B1008:I1008"/>
-    <mergeCell ref="B1009:I1009"/>
-    <mergeCell ref="B1010:I1010"/>
     <mergeCell ref="B1011:I1011"/>
     <mergeCell ref="B1012:I1012"/>
-    <mergeCell ref="B1013:I1013"/>
-    <mergeCell ref="B1014:I1014"/>
     <mergeCell ref="B1015:I1015"/>
     <mergeCell ref="B1016:I1016"/>
     <mergeCell ref="B1017:I1017"/>
     <mergeCell ref="B1018:I1018"/>
     <mergeCell ref="B1019:I1019"/>
+    <mergeCell ref="B1020:I1020"/>
+    <mergeCell ref="B1021:I1021"/>
     <mergeCell ref="B1022:I1022"/>
     <mergeCell ref="B1023:I1023"/>
+    <mergeCell ref="B1024:I1024"/>
+    <mergeCell ref="B1025:I1025"/>
     <mergeCell ref="B1026:I1026"/>
     <mergeCell ref="B1027:I1027"/>
+    <mergeCell ref="B1028:I1028"/>
+    <mergeCell ref="B1029:I1029"/>
     <mergeCell ref="B1030:I1030"/>
     <mergeCell ref="B1031:I1031"/>
+    <mergeCell ref="B1032:I1032"/>
+    <mergeCell ref="B1033:I1033"/>
     <mergeCell ref="B1034:I1034"/>
     <mergeCell ref="B1035:I1035"/>
     <mergeCell ref="B1036:I1036"/>
     <mergeCell ref="B1037:I1037"/>
-    <mergeCell ref="B1038:I1038"/>
-    <mergeCell ref="B1039:I1039"/>
     <mergeCell ref="B1040:I1040"/>
     <mergeCell ref="B1041:I1041"/>
     <mergeCell ref="B1042:I1042"/>
@@ -19383,17 +19156,15 @@
     <mergeCell ref="B1054:I1054"/>
     <mergeCell ref="B1055:I1055"/>
     <mergeCell ref="B1056:I1056"/>
+    <mergeCell ref="B1057:I1057"/>
+    <mergeCell ref="B1058:I1058"/>
     <mergeCell ref="B1059:I1059"/>
     <mergeCell ref="B1060:I1060"/>
     <mergeCell ref="B1061:I1061"/>
     <mergeCell ref="B1062:I1062"/>
-    <mergeCell ref="B1063:I1063"/>
-    <mergeCell ref="B1064:I1064"/>
     <mergeCell ref="B1065:I1065"/>
     <mergeCell ref="B1066:I1066"/>
     <mergeCell ref="B1067:I1067"/>
-    <mergeCell ref="B1068:I1068"/>
-    <mergeCell ref="B1069:I1069"/>
     <mergeCell ref="B1070:I1070"/>
     <mergeCell ref="B1071:I1071"/>
     <mergeCell ref="B1072:I1072"/>
@@ -19406,9 +19177,13 @@
     <mergeCell ref="B1079:I1079"/>
     <mergeCell ref="B1080:I1080"/>
     <mergeCell ref="B1081:I1081"/>
+    <mergeCell ref="B1082:I1082"/>
+    <mergeCell ref="B1083:I1083"/>
     <mergeCell ref="B1084:I1084"/>
     <mergeCell ref="B1085:I1085"/>
     <mergeCell ref="B1086:I1086"/>
+    <mergeCell ref="B1087:I1087"/>
+    <mergeCell ref="B1088:I1088"/>
     <mergeCell ref="B1089:I1089"/>
     <mergeCell ref="B1090:I1090"/>
     <mergeCell ref="B1091:I1091"/>
@@ -19419,8 +19194,6 @@
     <mergeCell ref="B1096:I1096"/>
     <mergeCell ref="B1097:I1097"/>
     <mergeCell ref="B1098:I1098"/>
-    <mergeCell ref="B1099:I1099"/>
-    <mergeCell ref="B1100:I1100"/>
     <mergeCell ref="B1101:I1101"/>
     <mergeCell ref="B1102:I1102"/>
     <mergeCell ref="B1103:I1103"/>
@@ -19438,6 +19211,8 @@
     <mergeCell ref="B1115:I1115"/>
     <mergeCell ref="B1116:I1116"/>
     <mergeCell ref="B1117:I1117"/>
+    <mergeCell ref="B1118:I1118"/>
+    <mergeCell ref="B1119:I1119"/>
     <mergeCell ref="B1120:I1120"/>
     <mergeCell ref="B1121:I1121"/>
     <mergeCell ref="B1122:I1122"/>
@@ -19448,8 +19223,6 @@
     <mergeCell ref="B1127:I1127"/>
     <mergeCell ref="B1128:I1128"/>
     <mergeCell ref="B1129:I1129"/>
-    <mergeCell ref="B1130:I1130"/>
-    <mergeCell ref="B1131:I1131"/>
     <mergeCell ref="B1132:I1132"/>
     <mergeCell ref="B1133:I1133"/>
     <mergeCell ref="B1134:I1134"/>
@@ -19457,8 +19230,6 @@
     <mergeCell ref="B1136:I1136"/>
     <mergeCell ref="B1137:I1137"/>
     <mergeCell ref="B1138:I1138"/>
-    <mergeCell ref="B1139:I1139"/>
-    <mergeCell ref="B1140:I1140"/>
     <mergeCell ref="B1141:I1141"/>
     <mergeCell ref="B1142:I1142"/>
     <mergeCell ref="B1143:I1143"/>
@@ -19472,24 +19243,9 @@
     <mergeCell ref="B1153:I1153"/>
     <mergeCell ref="B1154:I1154"/>
     <mergeCell ref="B1155:I1155"/>
-    <mergeCell ref="B1156:I1156"/>
-    <mergeCell ref="B1157:I1157"/>
-    <mergeCell ref="B1160:I1160"/>
-    <mergeCell ref="B1161:I1161"/>
-    <mergeCell ref="B1162:I1162"/>
-    <mergeCell ref="B1163:I1163"/>
-    <mergeCell ref="B1164:I1164"/>
-    <mergeCell ref="B1165:I1165"/>
-    <mergeCell ref="B1166:I1166"/>
-    <mergeCell ref="B1167:I1167"/>
-    <mergeCell ref="B1170:I1170"/>
-    <mergeCell ref="B1171:I1171"/>
-    <mergeCell ref="B1172:I1172"/>
-    <mergeCell ref="B1173:I1173"/>
-    <mergeCell ref="B1174:I1174"/>
-    <mergeCell ref="B1177:I1177"/>
+    <mergeCell ref="B1158:I1158"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:E1113">
+  <conditionalFormatting sqref="C6:E1098">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C6)))</formula>
     </cfRule>
